--- a/database/industries/shoyande/shegol/product/monthly_seprated.xlsx
+++ b/database/industries/shoyande/shegol/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\shegol\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40C03E3-08A3-4736-8AE1-EDA86FB59760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096F4378-CC74-470B-837A-A0170C7DC5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="88">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 10 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 11 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 11 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 12 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1519,77 +1519,77 @@
       <c r="AD11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE11" s="11" t="s">
-        <v>58</v>
+      <c r="AE11" s="11">
+        <v>716</v>
       </c>
       <c r="AF11" s="11">
-        <v>716</v>
+        <v>734</v>
       </c>
       <c r="AG11" s="11">
-        <v>734</v>
+        <v>773</v>
       </c>
       <c r="AH11" s="11">
-        <v>773</v>
+        <v>521</v>
       </c>
       <c r="AI11" s="11">
-        <v>521</v>
+        <v>830</v>
       </c>
       <c r="AJ11" s="11">
-        <v>830</v>
+        <v>1055</v>
       </c>
       <c r="AK11" s="11">
-        <v>1055</v>
+        <v>879</v>
       </c>
       <c r="AL11" s="11">
-        <v>879</v>
+        <v>853</v>
       </c>
       <c r="AM11" s="11">
-        <v>853</v>
+        <v>825</v>
       </c>
       <c r="AN11" s="11">
-        <v>825</v>
+        <v>908</v>
       </c>
       <c r="AO11" s="11">
-        <v>908</v>
+        <v>655</v>
       </c>
       <c r="AP11" s="11">
-        <v>655</v>
+        <v>577</v>
       </c>
       <c r="AQ11" s="11">
-        <v>577</v>
+        <v>486</v>
       </c>
       <c r="AR11" s="11">
-        <v>486</v>
+        <v>597</v>
       </c>
       <c r="AS11" s="11">
-        <v>597</v>
+        <v>760</v>
       </c>
       <c r="AT11" s="11">
-        <v>760</v>
+        <v>294</v>
       </c>
       <c r="AU11" s="11">
-        <v>294</v>
+        <v>337</v>
       </c>
       <c r="AV11" s="11">
-        <v>337</v>
+        <v>697</v>
       </c>
       <c r="AW11" s="11">
-        <v>697</v>
+        <v>648</v>
       </c>
       <c r="AX11" s="11">
-        <v>648</v>
+        <v>359</v>
       </c>
       <c r="AY11" s="11">
-        <v>359</v>
+        <v>738</v>
       </c>
       <c r="AZ11" s="11">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="BA11" s="11">
-        <v>733</v>
+        <v>842</v>
       </c>
       <c r="BB11" s="11">
-        <v>842</v>
+        <v>857</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1678,77 +1678,77 @@
       <c r="AD12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE12" s="13" t="s">
-        <v>58</v>
+      <c r="AE12" s="13">
+        <v>972</v>
       </c>
       <c r="AF12" s="13">
-        <v>972</v>
+        <v>1061</v>
       </c>
       <c r="AG12" s="13">
-        <v>1061</v>
+        <v>1239</v>
       </c>
       <c r="AH12" s="13">
-        <v>1239</v>
+        <v>611</v>
       </c>
       <c r="AI12" s="13">
-        <v>611</v>
+        <v>1041</v>
       </c>
       <c r="AJ12" s="13">
-        <v>1041</v>
+        <v>1006</v>
       </c>
       <c r="AK12" s="13">
-        <v>1006</v>
+        <v>958</v>
       </c>
       <c r="AL12" s="13">
-        <v>958</v>
+        <v>758</v>
       </c>
       <c r="AM12" s="13">
-        <v>758</v>
+        <v>919</v>
       </c>
       <c r="AN12" s="13">
-        <v>919</v>
+        <v>777</v>
       </c>
       <c r="AO12" s="13">
-        <v>777</v>
+        <v>669</v>
       </c>
       <c r="AP12" s="13">
-        <v>669</v>
+        <v>1138</v>
       </c>
       <c r="AQ12" s="13">
-        <v>1138</v>
+        <v>736</v>
       </c>
       <c r="AR12" s="13">
-        <v>736</v>
+        <v>560</v>
       </c>
       <c r="AS12" s="13">
-        <v>560</v>
+        <v>671</v>
       </c>
       <c r="AT12" s="13">
-        <v>671</v>
+        <v>281</v>
       </c>
       <c r="AU12" s="13">
-        <v>281</v>
+        <v>370</v>
       </c>
       <c r="AV12" s="13">
-        <v>370</v>
+        <v>553</v>
       </c>
       <c r="AW12" s="13">
-        <v>553</v>
+        <v>616</v>
       </c>
       <c r="AX12" s="13">
-        <v>616</v>
+        <v>212</v>
       </c>
       <c r="AY12" s="13">
-        <v>212</v>
+        <v>436</v>
       </c>
       <c r="AZ12" s="13">
-        <v>436</v>
+        <v>872</v>
       </c>
       <c r="BA12" s="13">
-        <v>872</v>
+        <v>426</v>
       </c>
       <c r="BB12" s="13">
-        <v>426</v>
+        <v>945</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1837,77 +1837,77 @@
       <c r="AD13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE13" s="11" t="s">
-        <v>58</v>
+      <c r="AE13" s="11">
+        <v>270</v>
       </c>
       <c r="AF13" s="11">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AG13" s="11">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="AH13" s="11">
-        <v>230</v>
+        <v>156</v>
       </c>
       <c r="AI13" s="11">
-        <v>156</v>
+        <v>256</v>
       </c>
       <c r="AJ13" s="11">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="AK13" s="11">
-        <v>282</v>
+        <v>367</v>
       </c>
       <c r="AL13" s="11">
-        <v>367</v>
+        <v>273</v>
       </c>
       <c r="AM13" s="11">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="AN13" s="11">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="AO13" s="11">
-        <v>340</v>
+        <v>302</v>
       </c>
       <c r="AP13" s="11">
-        <v>302</v>
+        <v>165</v>
       </c>
       <c r="AQ13" s="11">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="AR13" s="11">
-        <v>153</v>
+        <v>77</v>
       </c>
       <c r="AS13" s="11">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="AT13" s="11">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="AU13" s="11">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="AV13" s="11">
-        <v>49</v>
+        <v>245</v>
       </c>
       <c r="AW13" s="11">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="AX13" s="11">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="AY13" s="11">
-        <v>194</v>
+        <v>253</v>
       </c>
       <c r="AZ13" s="11">
-        <v>253</v>
+        <v>220</v>
       </c>
       <c r="BA13" s="11">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="BB13" s="11">
-        <v>123</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1996,77 +1996,77 @@
       <c r="AD14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE14" s="13" t="s">
-        <v>58</v>
+      <c r="AE14" s="13">
+        <v>2460</v>
       </c>
       <c r="AF14" s="13">
-        <v>2460</v>
+        <v>2244</v>
       </c>
       <c r="AG14" s="13">
-        <v>2244</v>
+        <v>2483</v>
       </c>
       <c r="AH14" s="13">
-        <v>2483</v>
+        <v>1320</v>
       </c>
       <c r="AI14" s="13">
-        <v>1320</v>
+        <v>2480</v>
       </c>
       <c r="AJ14" s="13">
-        <v>2480</v>
+        <v>2977</v>
       </c>
       <c r="AK14" s="13">
-        <v>2977</v>
+        <v>3089</v>
       </c>
       <c r="AL14" s="13">
-        <v>3089</v>
+        <v>2685</v>
       </c>
       <c r="AM14" s="13">
-        <v>2685</v>
+        <v>3135</v>
       </c>
       <c r="AN14" s="13">
-        <v>3135</v>
+        <v>2478</v>
       </c>
       <c r="AO14" s="13">
-        <v>2478</v>
+        <v>1757</v>
       </c>
       <c r="AP14" s="13">
-        <v>1757</v>
+        <v>3037</v>
       </c>
       <c r="AQ14" s="13">
-        <v>3037</v>
+        <v>1847</v>
       </c>
       <c r="AR14" s="13">
-        <v>1847</v>
+        <v>1504</v>
       </c>
       <c r="AS14" s="13">
-        <v>1504</v>
+        <v>1808</v>
       </c>
       <c r="AT14" s="13">
-        <v>1808</v>
+        <v>614</v>
       </c>
       <c r="AU14" s="13">
-        <v>614</v>
+        <v>699</v>
       </c>
       <c r="AV14" s="13">
-        <v>699</v>
+        <v>2187</v>
       </c>
       <c r="AW14" s="13">
-        <v>2187</v>
+        <v>2018</v>
       </c>
       <c r="AX14" s="13">
-        <v>2018</v>
+        <v>950</v>
       </c>
       <c r="AY14" s="13">
-        <v>950</v>
+        <v>2491</v>
       </c>
       <c r="AZ14" s="13">
-        <v>2491</v>
+        <v>2794</v>
       </c>
       <c r="BA14" s="13">
-        <v>2794</v>
+        <v>2415</v>
       </c>
       <c r="BB14" s="13">
-        <v>2415</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.3">
@@ -2155,35 +2155,35 @@
       <c r="AD15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE15" s="11" t="s">
-        <v>58</v>
+      <c r="AE15" s="11">
+        <v>0</v>
       </c>
       <c r="AF15" s="11">
         <v>0</v>
       </c>
       <c r="AG15" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="11">
         <v>2</v>
       </c>
-      <c r="AI15" s="11">
-        <v>0</v>
-      </c>
       <c r="AJ15" s="11">
-        <v>2</v>
-      </c>
-      <c r="AK15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AK15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL15" s="11">
+        <v>0</v>
       </c>
       <c r="AM15" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AN15" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="11">
         <v>0</v>
@@ -2313,76 +2313,76 @@
         <v>0</v>
       </c>
       <c r="AE16" s="15">
-        <v>0</v>
+        <v>4418</v>
       </c>
       <c r="AF16" s="15">
-        <v>4418</v>
+        <v>4311</v>
       </c>
       <c r="AG16" s="15">
-        <v>4311</v>
+        <v>4727</v>
       </c>
       <c r="AH16" s="15">
-        <v>4727</v>
+        <v>2608</v>
       </c>
       <c r="AI16" s="15">
-        <v>2608</v>
+        <v>4609</v>
       </c>
       <c r="AJ16" s="15">
-        <v>4609</v>
+        <v>5320</v>
       </c>
       <c r="AK16" s="15">
-        <v>5320</v>
+        <v>5293</v>
       </c>
       <c r="AL16" s="15">
-        <v>5293</v>
+        <v>4569</v>
       </c>
       <c r="AM16" s="15">
-        <v>4569</v>
+        <v>5191</v>
       </c>
       <c r="AN16" s="15">
-        <v>5191</v>
+        <v>4503</v>
       </c>
       <c r="AO16" s="15">
-        <v>4503</v>
+        <v>3383</v>
       </c>
       <c r="AP16" s="15">
-        <v>3383</v>
+        <v>4917</v>
       </c>
       <c r="AQ16" s="15">
-        <v>4917</v>
+        <v>3222</v>
       </c>
       <c r="AR16" s="15">
-        <v>3222</v>
+        <v>2738</v>
       </c>
       <c r="AS16" s="15">
-        <v>2738</v>
+        <v>3277</v>
       </c>
       <c r="AT16" s="15">
-        <v>3277</v>
+        <v>1232</v>
       </c>
       <c r="AU16" s="15">
-        <v>1232</v>
+        <v>1455</v>
       </c>
       <c r="AV16" s="15">
-        <v>1455</v>
+        <v>3682</v>
       </c>
       <c r="AW16" s="15">
-        <v>3682</v>
+        <v>3484</v>
       </c>
       <c r="AX16" s="15">
-        <v>3484</v>
+        <v>1715</v>
       </c>
       <c r="AY16" s="15">
-        <v>1715</v>
+        <v>3918</v>
       </c>
       <c r="AZ16" s="15">
-        <v>3918</v>
+        <v>4619</v>
       </c>
       <c r="BA16" s="15">
-        <v>4619</v>
+        <v>3806</v>
       </c>
       <c r="BB16" s="15">
-        <v>3806</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2531,8 +2531,8 @@
       <c r="AE18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF18" s="11" t="s">
-        <v>58</v>
+      <c r="AF18" s="11">
+        <v>0</v>
       </c>
       <c r="AG18" s="11">
         <v>0</v>
@@ -2540,23 +2540,23 @@
       <c r="AH18" s="11">
         <v>0</v>
       </c>
-      <c r="AI18" s="11">
-        <v>0</v>
+      <c r="AI18" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL18" s="11">
-        <v>0</v>
+      <c r="AK18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN18" s="11" t="s">
-        <v>58</v>
+      <c r="AN18" s="11">
+        <v>0</v>
       </c>
       <c r="AO18" s="11">
         <v>0</v>
@@ -2567,11 +2567,11 @@
       <c r="AQ18" s="11">
         <v>0</v>
       </c>
-      <c r="AR18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="11" t="s">
-        <v>58</v>
+      <c r="AR18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS18" s="11">
+        <v>0</v>
       </c>
       <c r="AT18" s="11">
         <v>0</v>
@@ -2732,11 +2732,11 @@
       <c r="AS19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU19" s="13">
-        <v>0</v>
+      <c r="AT19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV19" s="13" t="s">
         <v>58</v>
@@ -2756,8 +2756,8 @@
       <c r="BA19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BB19" s="13" t="s">
-        <v>58</v>
+      <c r="BB19" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -2849,8 +2849,8 @@
       <c r="AE20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF20" s="11" t="s">
-        <v>58</v>
+      <c r="AF20" s="11">
+        <v>0</v>
       </c>
       <c r="AG20" s="11">
         <v>0</v>
@@ -2858,29 +2858,29 @@
       <c r="AH20" s="11">
         <v>0</v>
       </c>
-      <c r="AI20" s="11">
-        <v>0</v>
+      <c r="AI20" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL20" s="11">
-        <v>0</v>
+      <c r="AK20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN20" s="11" t="s">
-        <v>58</v>
+      <c r="AN20" s="11">
+        <v>0</v>
       </c>
       <c r="AO20" s="11">
         <v>0</v>
       </c>
-      <c r="AP20" s="11">
-        <v>0</v>
+      <c r="AP20" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ20" s="11" t="s">
         <v>58</v>
@@ -2888,14 +2888,14 @@
       <c r="AR20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU20" s="11" t="s">
-        <v>58</v>
+      <c r="AS20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU20" s="11">
+        <v>0</v>
       </c>
       <c r="AV20" s="11">
         <v>0</v>
@@ -3005,8 +3005,8 @@
       <c r="AD21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE21" s="13" t="s">
-        <v>58</v>
+      <c r="AE21" s="13">
+        <v>0</v>
       </c>
       <c r="AF21" s="13">
         <v>0</v>
@@ -3017,23 +3017,23 @@
       <c r="AH21" s="13">
         <v>0</v>
       </c>
-      <c r="AI21" s="13">
-        <v>0</v>
+      <c r="AI21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL21" s="13">
-        <v>0</v>
+      <c r="AK21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN21" s="13" t="s">
-        <v>58</v>
+      <c r="AN21" s="13">
+        <v>0</v>
       </c>
       <c r="AO21" s="13">
         <v>0</v>
@@ -3044,11 +3044,11 @@
       <c r="AQ21" s="13">
         <v>0</v>
       </c>
-      <c r="AR21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="13" t="s">
-        <v>58</v>
+      <c r="AR21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS21" s="13">
+        <v>0</v>
       </c>
       <c r="AT21" s="13">
         <v>0</v>
@@ -3376,8 +3376,8 @@
       <c r="AD24" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AE24" s="17" t="s">
-        <v>58</v>
+      <c r="AE24" s="17">
+        <v>0</v>
       </c>
       <c r="AF24" s="17">
         <v>0</v>
@@ -3534,76 +3534,76 @@
         <v>0</v>
       </c>
       <c r="AE25" s="15">
-        <v>0</v>
+        <v>4418</v>
       </c>
       <c r="AF25" s="15">
-        <v>4418</v>
+        <v>4311</v>
       </c>
       <c r="AG25" s="15">
-        <v>4311</v>
+        <v>4727</v>
       </c>
       <c r="AH25" s="15">
-        <v>4727</v>
+        <v>2608</v>
       </c>
       <c r="AI25" s="15">
-        <v>2608</v>
+        <v>4609</v>
       </c>
       <c r="AJ25" s="15">
-        <v>4609</v>
+        <v>5320</v>
       </c>
       <c r="AK25" s="15">
-        <v>5320</v>
+        <v>5293</v>
       </c>
       <c r="AL25" s="15">
-        <v>5293</v>
+        <v>4569</v>
       </c>
       <c r="AM25" s="15">
-        <v>4569</v>
+        <v>5191</v>
       </c>
       <c r="AN25" s="15">
-        <v>5191</v>
+        <v>4503</v>
       </c>
       <c r="AO25" s="15">
-        <v>4503</v>
+        <v>3383</v>
       </c>
       <c r="AP25" s="15">
-        <v>3383</v>
+        <v>4917</v>
       </c>
       <c r="AQ25" s="15">
-        <v>4917</v>
+        <v>3222</v>
       </c>
       <c r="AR25" s="15">
-        <v>3222</v>
+        <v>2738</v>
       </c>
       <c r="AS25" s="15">
-        <v>2738</v>
+        <v>3277</v>
       </c>
       <c r="AT25" s="15">
-        <v>3277</v>
+        <v>1232</v>
       </c>
       <c r="AU25" s="15">
-        <v>1232</v>
+        <v>1455</v>
       </c>
       <c r="AV25" s="15">
-        <v>1455</v>
+        <v>3682</v>
       </c>
       <c r="AW25" s="15">
-        <v>3682</v>
+        <v>3484</v>
       </c>
       <c r="AX25" s="15">
-        <v>3484</v>
+        <v>1715</v>
       </c>
       <c r="AY25" s="15">
-        <v>1715</v>
+        <v>3918</v>
       </c>
       <c r="AZ25" s="15">
-        <v>3918</v>
+        <v>4619</v>
       </c>
       <c r="BA25" s="15">
-        <v>4619</v>
+        <v>3806</v>
       </c>
       <c r="BB25" s="15">
-        <v>3806</v>
+        <v>4774</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -4126,77 +4126,77 @@
       <c r="AD32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE32" s="11" t="s">
-        <v>58</v>
+      <c r="AE32" s="11">
+        <v>687</v>
       </c>
       <c r="AF32" s="11">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="AG32" s="11">
-        <v>670</v>
+        <v>773</v>
       </c>
       <c r="AH32" s="11">
-        <v>773</v>
+        <v>390</v>
       </c>
       <c r="AI32" s="11">
-        <v>390</v>
+        <v>779</v>
       </c>
       <c r="AJ32" s="11">
-        <v>779</v>
+        <v>1228</v>
       </c>
       <c r="AK32" s="11">
-        <v>1228</v>
+        <v>901</v>
       </c>
       <c r="AL32" s="11">
-        <v>901</v>
+        <v>602</v>
       </c>
       <c r="AM32" s="11">
-        <v>602</v>
+        <v>877</v>
       </c>
       <c r="AN32" s="11">
-        <v>877</v>
+        <v>527</v>
       </c>
       <c r="AO32" s="11">
-        <v>527</v>
+        <v>451</v>
       </c>
       <c r="AP32" s="11">
-        <v>451</v>
+        <v>570</v>
       </c>
       <c r="AQ32" s="11">
-        <v>570</v>
+        <v>319</v>
       </c>
       <c r="AR32" s="11">
-        <v>319</v>
+        <v>454</v>
       </c>
       <c r="AS32" s="11">
-        <v>454</v>
+        <v>291</v>
       </c>
       <c r="AT32" s="11">
-        <v>291</v>
+        <v>194</v>
       </c>
       <c r="AU32" s="11">
-        <v>194</v>
+        <v>121</v>
       </c>
       <c r="AV32" s="11">
-        <v>121</v>
+        <v>306</v>
       </c>
       <c r="AW32" s="11">
-        <v>306</v>
+        <v>658</v>
       </c>
       <c r="AX32" s="11">
-        <v>658</v>
+        <v>596</v>
       </c>
       <c r="AY32" s="11">
-        <v>596</v>
+        <v>514</v>
       </c>
       <c r="AZ32" s="11">
-        <v>514</v>
+        <v>922</v>
       </c>
       <c r="BA32" s="11">
-        <v>922</v>
+        <v>909</v>
       </c>
       <c r="BB32" s="11">
-        <v>909</v>
+        <v>793</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4285,77 +4285,77 @@
       <c r="AD33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE33" s="13" t="s">
-        <v>58</v>
+      <c r="AE33" s="13">
+        <v>1065</v>
       </c>
       <c r="AF33" s="13">
-        <v>1065</v>
+        <v>1038</v>
       </c>
       <c r="AG33" s="13">
-        <v>1038</v>
+        <v>1152</v>
       </c>
       <c r="AH33" s="13">
-        <v>1152</v>
+        <v>610</v>
       </c>
       <c r="AI33" s="13">
-        <v>610</v>
+        <v>1004</v>
       </c>
       <c r="AJ33" s="13">
-        <v>1004</v>
+        <v>945</v>
       </c>
       <c r="AK33" s="13">
-        <v>945</v>
+        <v>860</v>
       </c>
       <c r="AL33" s="13">
-        <v>860</v>
+        <v>846</v>
       </c>
       <c r="AM33" s="13">
-        <v>846</v>
+        <v>1052</v>
       </c>
       <c r="AN33" s="13">
-        <v>1052</v>
+        <v>831</v>
       </c>
       <c r="AO33" s="13">
-        <v>831</v>
+        <v>728</v>
       </c>
       <c r="AP33" s="13">
-        <v>728</v>
+        <v>956</v>
       </c>
       <c r="AQ33" s="13">
-        <v>956</v>
+        <v>762</v>
       </c>
       <c r="AR33" s="13">
-        <v>762</v>
+        <v>695</v>
       </c>
       <c r="AS33" s="13">
-        <v>695</v>
+        <v>665</v>
       </c>
       <c r="AT33" s="13">
-        <v>665</v>
+        <v>323</v>
       </c>
       <c r="AU33" s="13">
-        <v>323</v>
+        <v>121</v>
       </c>
       <c r="AV33" s="13">
-        <v>121</v>
+        <v>588</v>
       </c>
       <c r="AW33" s="13">
         <v>588</v>
       </c>
       <c r="AX33" s="13">
-        <v>588</v>
+        <v>471</v>
       </c>
       <c r="AY33" s="13">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="AZ33" s="13">
-        <v>459</v>
+        <v>638</v>
       </c>
       <c r="BA33" s="13">
-        <v>638</v>
+        <v>584</v>
       </c>
       <c r="BB33" s="13">
-        <v>584</v>
+        <v>836</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4444,77 +4444,77 @@
       <c r="AD34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE34" s="11" t="s">
-        <v>58</v>
+      <c r="AE34" s="11">
+        <v>196</v>
       </c>
       <c r="AF34" s="11">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="AG34" s="11">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="AH34" s="11">
-        <v>287</v>
+        <v>120</v>
       </c>
       <c r="AI34" s="11">
-        <v>120</v>
+        <v>318</v>
       </c>
       <c r="AJ34" s="11">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="AK34" s="11">
-        <v>352</v>
+        <v>288</v>
       </c>
       <c r="AL34" s="11">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="AM34" s="11">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="AN34" s="11">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="AO34" s="11">
-        <v>251</v>
+        <v>148</v>
       </c>
       <c r="AP34" s="11">
-        <v>148</v>
+        <v>273</v>
       </c>
       <c r="AQ34" s="11">
-        <v>273</v>
+        <v>145</v>
       </c>
       <c r="AR34" s="11">
-        <v>145</v>
+        <v>194</v>
       </c>
       <c r="AS34" s="11">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="AT34" s="11">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="AU34" s="11">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="AV34" s="11">
-        <v>25</v>
+        <v>134</v>
       </c>
       <c r="AW34" s="11">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="AX34" s="11">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="AY34" s="11">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="AZ34" s="11">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="BA34" s="11">
-        <v>262</v>
+        <v>146</v>
       </c>
       <c r="BB34" s="11">
-        <v>146</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4603,77 +4603,77 @@
       <c r="AD35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE35" s="13" t="s">
-        <v>58</v>
+      <c r="AE35" s="13">
+        <v>2040</v>
       </c>
       <c r="AF35" s="13">
-        <v>2040</v>
+        <v>2278</v>
       </c>
       <c r="AG35" s="13">
-        <v>2278</v>
+        <v>2445</v>
       </c>
       <c r="AH35" s="13">
-        <v>2445</v>
+        <v>1265</v>
       </c>
       <c r="AI35" s="13">
-        <v>1265</v>
+        <v>2427</v>
       </c>
       <c r="AJ35" s="13">
-        <v>2427</v>
+        <v>3004</v>
       </c>
       <c r="AK35" s="13">
-        <v>3004</v>
+        <v>2650</v>
       </c>
       <c r="AL35" s="13">
-        <v>2650</v>
+        <v>2410</v>
       </c>
       <c r="AM35" s="13">
-        <v>2410</v>
+        <v>2837</v>
       </c>
       <c r="AN35" s="13">
-        <v>2837</v>
+        <v>2258</v>
       </c>
       <c r="AO35" s="13">
-        <v>2258</v>
+        <v>1874</v>
       </c>
       <c r="AP35" s="13">
-        <v>1874</v>
+        <v>2890</v>
       </c>
       <c r="AQ35" s="13">
-        <v>2890</v>
+        <v>1442</v>
       </c>
       <c r="AR35" s="13">
-        <v>1442</v>
+        <v>1090</v>
       </c>
       <c r="AS35" s="13">
-        <v>1090</v>
+        <v>2302</v>
       </c>
       <c r="AT35" s="13">
-        <v>2302</v>
+        <v>450</v>
       </c>
       <c r="AU35" s="13">
-        <v>450</v>
+        <v>69</v>
       </c>
       <c r="AV35" s="13">
-        <v>69</v>
+        <v>1431</v>
       </c>
       <c r="AW35" s="13">
-        <v>1431</v>
+        <v>2428</v>
       </c>
       <c r="AX35" s="13">
-        <v>2428</v>
+        <v>1041</v>
       </c>
       <c r="AY35" s="13">
-        <v>1041</v>
+        <v>1854</v>
       </c>
       <c r="AZ35" s="13">
-        <v>1854</v>
+        <v>3323</v>
       </c>
       <c r="BA35" s="13">
-        <v>3323</v>
+        <v>2105</v>
       </c>
       <c r="BB35" s="13">
-        <v>2105</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -4762,8 +4762,8 @@
       <c r="AD36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE36" s="11" t="s">
-        <v>58</v>
+      <c r="AE36" s="11">
+        <v>0</v>
       </c>
       <c r="AF36" s="11">
         <v>0</v>
@@ -4796,10 +4796,10 @@
         <v>0</v>
       </c>
       <c r="AP36" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ36" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR36" s="11">
         <v>0</v>
@@ -4920,76 +4920,76 @@
         <v>0</v>
       </c>
       <c r="AE37" s="15">
-        <v>0</v>
+        <v>3988</v>
       </c>
       <c r="AF37" s="15">
-        <v>3988</v>
+        <v>4216</v>
       </c>
       <c r="AG37" s="15">
-        <v>4216</v>
+        <v>4658</v>
       </c>
       <c r="AH37" s="15">
-        <v>4658</v>
+        <v>2385</v>
       </c>
       <c r="AI37" s="15">
-        <v>2385</v>
+        <v>4528</v>
       </c>
       <c r="AJ37" s="15">
-        <v>4528</v>
+        <v>5529</v>
       </c>
       <c r="AK37" s="15">
-        <v>5529</v>
+        <v>4698</v>
       </c>
       <c r="AL37" s="15">
-        <v>4698</v>
+        <v>4119</v>
       </c>
       <c r="AM37" s="15">
-        <v>4119</v>
+        <v>5059</v>
       </c>
       <c r="AN37" s="15">
-        <v>5059</v>
+        <v>3867</v>
       </c>
       <c r="AO37" s="15">
-        <v>3867</v>
+        <v>3201</v>
       </c>
       <c r="AP37" s="15">
-        <v>3201</v>
+        <v>4690</v>
       </c>
       <c r="AQ37" s="15">
-        <v>4690</v>
+        <v>2668</v>
       </c>
       <c r="AR37" s="15">
-        <v>2668</v>
+        <v>2433</v>
       </c>
       <c r="AS37" s="15">
-        <v>2433</v>
+        <v>3416</v>
       </c>
       <c r="AT37" s="15">
-        <v>3416</v>
+        <v>1026</v>
       </c>
       <c r="AU37" s="15">
-        <v>1026</v>
+        <v>337</v>
       </c>
       <c r="AV37" s="15">
-        <v>337</v>
+        <v>2459</v>
       </c>
       <c r="AW37" s="15">
-        <v>2459</v>
+        <v>3849</v>
       </c>
       <c r="AX37" s="15">
-        <v>3849</v>
+        <v>2298</v>
       </c>
       <c r="AY37" s="15">
-        <v>2298</v>
+        <v>3064</v>
       </c>
       <c r="AZ37" s="15">
-        <v>3064</v>
+        <v>5145</v>
       </c>
       <c r="BA37" s="15">
-        <v>5145</v>
+        <v>3744</v>
       </c>
       <c r="BB37" s="15">
-        <v>3744</v>
+        <v>4219</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -5138,8 +5138,8 @@
       <c r="AE39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF39" s="11" t="s">
-        <v>58</v>
+      <c r="AF39" s="11">
+        <v>0</v>
       </c>
       <c r="AG39" s="11">
         <v>0</v>
@@ -5151,43 +5151,43 @@
         <v>0</v>
       </c>
       <c r="AJ39" s="11">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AK39" s="11">
-        <v>37</v>
-      </c>
-      <c r="AL39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM39" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AL39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM39" s="11">
+        <v>71</v>
       </c>
       <c r="AN39" s="11">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="AO39" s="11">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AP39" s="11">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="AQ39" s="11">
-        <v>375</v>
+        <v>281</v>
       </c>
       <c r="AR39" s="11">
-        <v>281</v>
+        <v>468</v>
       </c>
       <c r="AS39" s="11">
         <v>468</v>
       </c>
       <c r="AT39" s="11">
-        <v>468</v>
+        <v>70</v>
       </c>
       <c r="AU39" s="11">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="AV39" s="11">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="AW39" s="11">
         <v>0</v>
@@ -5199,13 +5199,13 @@
         <v>0</v>
       </c>
       <c r="AZ39" s="11">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="BA39" s="11">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="BB39" s="11">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5327,23 +5327,23 @@
       <c r="AO40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ40" s="13">
+      <c r="AP40" s="13">
         <v>10</v>
       </c>
+      <c r="AQ40" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AR40" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AS40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU40" s="13">
-        <v>0</v>
+      <c r="AT40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV40" s="13" t="s">
         <v>58</v>
@@ -5363,8 +5363,8 @@
       <c r="BA40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BB40" s="13" t="s">
-        <v>58</v>
+      <c r="BB40" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5456,74 +5456,74 @@
       <c r="AE41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF41" s="11" t="s">
-        <v>58</v>
+      <c r="AF41" s="11">
+        <v>0</v>
       </c>
       <c r="AG41" s="11">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AH41" s="11">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="AI41" s="11">
         <v>4</v>
       </c>
       <c r="AJ41" s="11">
+        <v>10</v>
+      </c>
+      <c r="AK41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN41" s="11">
+        <v>17</v>
+      </c>
+      <c r="AO41" s="11">
         <v>4</v>
       </c>
-      <c r="AK41" s="11">
-        <v>10</v>
-      </c>
-      <c r="AL41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AM41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO41" s="11">
+      <c r="AP41" s="11">
+        <v>51</v>
+      </c>
+      <c r="AQ41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="11">
         <v>17</v>
       </c>
-      <c r="AP41" s="11">
-        <v>4</v>
-      </c>
-      <c r="AQ41" s="11">
-        <v>51</v>
-      </c>
-      <c r="AR41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX41" s="11">
-        <v>0</v>
-      </c>
       <c r="AY41" s="11">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="AZ41" s="11">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="BA41" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB41" s="11">
         <v>6</v>
-      </c>
-      <c r="BB41" s="11">
-        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.3">
@@ -5612,77 +5612,77 @@
       <c r="AD42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE42" s="13" t="s">
-        <v>58</v>
+      <c r="AE42" s="13">
+        <v>0</v>
       </c>
       <c r="AF42" s="13">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="AG42" s="13">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AH42" s="13">
         <v>0</v>
       </c>
       <c r="AI42" s="13">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="AJ42" s="13">
-        <v>136</v>
+        <v>248</v>
       </c>
       <c r="AK42" s="13">
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="13">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="AM42" s="13">
-        <v>431</v>
+        <v>587</v>
       </c>
       <c r="AN42" s="13">
-        <v>587</v>
+        <v>45</v>
       </c>
       <c r="AO42" s="13">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="AP42" s="13">
         <v>22</v>
       </c>
       <c r="AQ42" s="13">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="AR42" s="13">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="AS42" s="13">
-        <v>301</v>
+        <v>43</v>
       </c>
       <c r="AT42" s="13">
-        <v>43</v>
+        <v>229</v>
       </c>
       <c r="AU42" s="13">
-        <v>229</v>
+        <v>68</v>
       </c>
       <c r="AV42" s="13">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="AW42" s="13">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="AX42" s="13">
-        <v>181</v>
+        <v>361</v>
       </c>
       <c r="AY42" s="13">
-        <v>361</v>
+        <v>252</v>
       </c>
       <c r="AZ42" s="13">
-        <v>252</v>
+        <v>47</v>
       </c>
       <c r="BA42" s="13">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="BB42" s="13">
-        <v>160</v>
+        <v>662</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5773,73 +5773,73 @@
         <v>0</v>
       </c>
       <c r="AF43" s="17">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="AG43" s="17">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="AH43" s="17">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="AI43" s="17">
-        <v>4</v>
+        <v>140</v>
       </c>
       <c r="AJ43" s="17">
-        <v>140</v>
+        <v>296</v>
       </c>
       <c r="AK43" s="17">
-        <v>296</v>
+        <v>0</v>
       </c>
       <c r="AL43" s="17">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="AM43" s="17">
-        <v>431</v>
+        <v>658</v>
       </c>
       <c r="AN43" s="17">
-        <v>658</v>
+        <v>110</v>
       </c>
       <c r="AO43" s="17">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="AP43" s="17">
-        <v>26</v>
+        <v>458</v>
       </c>
       <c r="AQ43" s="17">
-        <v>458</v>
+        <v>555</v>
       </c>
       <c r="AR43" s="17">
-        <v>555</v>
+        <v>769</v>
       </c>
       <c r="AS43" s="17">
-        <v>769</v>
+        <v>511</v>
       </c>
       <c r="AT43" s="17">
-        <v>511</v>
+        <v>299</v>
       </c>
       <c r="AU43" s="17">
-        <v>299</v>
+        <v>185</v>
       </c>
       <c r="AV43" s="17">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="AW43" s="17">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="AX43" s="17">
-        <v>181</v>
+        <v>379</v>
       </c>
       <c r="AY43" s="17">
-        <v>379</v>
+        <v>282</v>
       </c>
       <c r="AZ43" s="17">
-        <v>282</v>
+        <v>113</v>
       </c>
       <c r="BA43" s="17">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="BB43" s="17">
-        <v>182</v>
+        <v>668</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.3">
@@ -5983,8 +5983,8 @@
       <c r="AD45" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AE45" s="17" t="s">
-        <v>58</v>
+      <c r="AE45" s="17">
+        <v>0</v>
       </c>
       <c r="AF45" s="17">
         <v>0</v>
@@ -6247,23 +6247,23 @@
       <c r="AT47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU47" s="11" t="s">
-        <v>58</v>
+      <c r="AU47" s="11">
+        <v>0</v>
       </c>
       <c r="AV47" s="11">
         <v>0</v>
       </c>
-      <c r="AW47" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX47" s="11" t="s">
-        <v>58</v>
+      <c r="AW47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX47" s="11">
+        <v>0</v>
       </c>
       <c r="AY47" s="11">
         <v>0</v>
       </c>
-      <c r="AZ47" s="11">
-        <v>0</v>
+      <c r="AZ47" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BA47" s="11" t="s">
         <v>58</v>
@@ -6356,8 +6356,8 @@
       <c r="AD48" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AE48" s="15" t="s">
-        <v>58</v>
+      <c r="AE48" s="15">
+        <v>0</v>
       </c>
       <c r="AF48" s="15">
         <v>0</v>
@@ -6514,76 +6514,76 @@
         <v>0</v>
       </c>
       <c r="AE49" s="17">
-        <v>0</v>
+        <v>3988</v>
       </c>
       <c r="AF49" s="17">
-        <v>3988</v>
+        <v>4373</v>
       </c>
       <c r="AG49" s="17">
-        <v>4373</v>
+        <v>4704</v>
       </c>
       <c r="AH49" s="17">
-        <v>4704</v>
+        <v>2389</v>
       </c>
       <c r="AI49" s="17">
-        <v>2389</v>
+        <v>4668</v>
       </c>
       <c r="AJ49" s="17">
-        <v>4668</v>
+        <v>5824</v>
       </c>
       <c r="AK49" s="17">
-        <v>5824</v>
+        <v>4698</v>
       </c>
       <c r="AL49" s="17">
-        <v>4698</v>
+        <v>4550</v>
       </c>
       <c r="AM49" s="17">
-        <v>4550</v>
+        <v>5717</v>
       </c>
       <c r="AN49" s="17">
-        <v>5717</v>
+        <v>3977</v>
       </c>
       <c r="AO49" s="17">
-        <v>3977</v>
+        <v>3227</v>
       </c>
       <c r="AP49" s="17">
-        <v>3227</v>
+        <v>5148</v>
       </c>
       <c r="AQ49" s="17">
-        <v>5148</v>
+        <v>3223</v>
       </c>
       <c r="AR49" s="17">
-        <v>3223</v>
+        <v>3202</v>
       </c>
       <c r="AS49" s="17">
-        <v>3202</v>
+        <v>3927</v>
       </c>
       <c r="AT49" s="17">
-        <v>3927</v>
+        <v>1325</v>
       </c>
       <c r="AU49" s="17">
-        <v>1325</v>
+        <v>522</v>
       </c>
       <c r="AV49" s="17">
-        <v>522</v>
+        <v>2459</v>
       </c>
       <c r="AW49" s="17">
-        <v>2459</v>
+        <v>4030</v>
       </c>
       <c r="AX49" s="17">
-        <v>4030</v>
+        <v>2677</v>
       </c>
       <c r="AY49" s="17">
-        <v>2677</v>
+        <v>3346</v>
       </c>
       <c r="AZ49" s="17">
-        <v>3346</v>
+        <v>5258</v>
       </c>
       <c r="BA49" s="17">
-        <v>5258</v>
+        <v>3926</v>
       </c>
       <c r="BB49" s="17">
-        <v>3926</v>
+        <v>4887</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -7106,77 +7106,77 @@
       <c r="AD56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE56" s="11" t="s">
-        <v>58</v>
+      <c r="AE56" s="11">
+        <v>202287</v>
       </c>
       <c r="AF56" s="11">
-        <v>202287</v>
+        <v>221074</v>
       </c>
       <c r="AG56" s="11">
-        <v>221074</v>
+        <v>219450</v>
       </c>
       <c r="AH56" s="11">
-        <v>219450</v>
+        <v>115588</v>
       </c>
       <c r="AI56" s="11">
-        <v>115588</v>
+        <v>231562</v>
       </c>
       <c r="AJ56" s="11">
-        <v>231562</v>
+        <v>383083</v>
       </c>
       <c r="AK56" s="11">
-        <v>383083</v>
+        <v>310888</v>
       </c>
       <c r="AL56" s="11">
-        <v>310888</v>
+        <v>231953</v>
       </c>
       <c r="AM56" s="11">
-        <v>231953</v>
+        <v>319599</v>
       </c>
       <c r="AN56" s="11">
-        <v>319599</v>
+        <v>193238</v>
       </c>
       <c r="AO56" s="11">
-        <v>193238</v>
+        <v>181310</v>
       </c>
       <c r="AP56" s="11">
-        <v>181310</v>
+        <v>186218</v>
       </c>
       <c r="AQ56" s="11">
-        <v>186218</v>
+        <v>113047</v>
       </c>
       <c r="AR56" s="11">
-        <v>113047</v>
+        <v>153535</v>
       </c>
       <c r="AS56" s="11">
-        <v>153535</v>
+        <v>102726</v>
       </c>
       <c r="AT56" s="11">
-        <v>102726</v>
+        <v>87461</v>
       </c>
       <c r="AU56" s="11">
-        <v>87461</v>
+        <v>33511</v>
       </c>
       <c r="AV56" s="11">
-        <v>33511</v>
+        <v>163230</v>
       </c>
       <c r="AW56" s="11">
-        <v>163230</v>
+        <v>300371</v>
       </c>
       <c r="AX56" s="11">
-        <v>300371</v>
+        <v>274099</v>
       </c>
       <c r="AY56" s="11">
-        <v>274099</v>
+        <v>257735</v>
       </c>
       <c r="AZ56" s="11">
-        <v>257735</v>
+        <v>450322</v>
       </c>
       <c r="BA56" s="11">
-        <v>450322</v>
+        <v>502078</v>
       </c>
       <c r="BB56" s="11">
-        <v>502078</v>
+        <v>454589</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -7265,77 +7265,77 @@
       <c r="AD57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE57" s="13" t="s">
-        <v>58</v>
+      <c r="AE57" s="13">
+        <v>108525</v>
       </c>
       <c r="AF57" s="13">
-        <v>108525</v>
+        <v>121344</v>
       </c>
       <c r="AG57" s="13">
-        <v>121344</v>
+        <v>122024</v>
       </c>
       <c r="AH57" s="13">
-        <v>122024</v>
+        <v>54611</v>
       </c>
       <c r="AI57" s="13">
-        <v>54611</v>
+        <v>98510</v>
       </c>
       <c r="AJ57" s="13">
-        <v>98510</v>
+        <v>116879</v>
       </c>
       <c r="AK57" s="13">
-        <v>116879</v>
+        <v>93879</v>
       </c>
       <c r="AL57" s="13">
-        <v>93879</v>
+        <v>109005</v>
       </c>
       <c r="AM57" s="13">
-        <v>109005</v>
+        <v>141033</v>
       </c>
       <c r="AN57" s="13">
-        <v>141033</v>
+        <v>100553</v>
       </c>
       <c r="AO57" s="13">
-        <v>100553</v>
+        <v>89876</v>
       </c>
       <c r="AP57" s="13">
-        <v>89876</v>
+        <v>93265</v>
       </c>
       <c r="AQ57" s="13">
-        <v>93265</v>
+        <v>99797</v>
       </c>
       <c r="AR57" s="13">
-        <v>99797</v>
+        <v>86638</v>
       </c>
       <c r="AS57" s="13">
-        <v>86638</v>
+        <v>91716</v>
       </c>
       <c r="AT57" s="13">
-        <v>91716</v>
+        <v>41055</v>
       </c>
       <c r="AU57" s="13">
-        <v>41055</v>
+        <v>12675</v>
       </c>
       <c r="AV57" s="13">
-        <v>12675</v>
+        <v>97668</v>
       </c>
       <c r="AW57" s="13">
-        <v>97668</v>
+        <v>95401</v>
       </c>
       <c r="AX57" s="13">
-        <v>95401</v>
+        <v>86746</v>
       </c>
       <c r="AY57" s="13">
-        <v>86746</v>
+        <v>81885</v>
       </c>
       <c r="AZ57" s="13">
-        <v>81885</v>
+        <v>104444</v>
       </c>
       <c r="BA57" s="13">
-        <v>104444</v>
+        <v>104980</v>
       </c>
       <c r="BB57" s="13">
-        <v>104980</v>
+        <v>139224</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -7424,77 +7424,77 @@
       <c r="AD58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE58" s="11" t="s">
-        <v>58</v>
+      <c r="AE58" s="11">
+        <v>113979</v>
       </c>
       <c r="AF58" s="11">
-        <v>113979</v>
+        <v>143885</v>
       </c>
       <c r="AG58" s="11">
-        <v>143885</v>
+        <v>162959</v>
       </c>
       <c r="AH58" s="11">
-        <v>162959</v>
+        <v>65809</v>
       </c>
       <c r="AI58" s="11">
-        <v>65809</v>
+        <v>178265</v>
       </c>
       <c r="AJ58" s="11">
-        <v>178265</v>
+        <v>231354</v>
       </c>
       <c r="AK58" s="11">
-        <v>231354</v>
+        <v>183475</v>
       </c>
       <c r="AL58" s="11">
-        <v>183475</v>
+        <v>200590</v>
       </c>
       <c r="AM58" s="11">
-        <v>200590</v>
+        <v>209870</v>
       </c>
       <c r="AN58" s="11">
-        <v>209870</v>
+        <v>183207</v>
       </c>
       <c r="AO58" s="11">
-        <v>183207</v>
+        <v>122291</v>
       </c>
       <c r="AP58" s="11">
-        <v>122291</v>
+        <v>187905</v>
       </c>
       <c r="AQ58" s="11">
-        <v>187905</v>
+        <v>104044</v>
       </c>
       <c r="AR58" s="11">
-        <v>104044</v>
+        <v>134693</v>
       </c>
       <c r="AS58" s="11">
-        <v>134693</v>
+        <v>96098</v>
       </c>
       <c r="AT58" s="11">
-        <v>96098</v>
+        <v>42711</v>
       </c>
       <c r="AU58" s="11">
-        <v>42711</v>
+        <v>10917</v>
       </c>
       <c r="AV58" s="11">
-        <v>10917</v>
+        <v>127863</v>
       </c>
       <c r="AW58" s="11">
-        <v>127863</v>
+        <v>165053</v>
       </c>
       <c r="AX58" s="11">
-        <v>165053</v>
+        <v>179156</v>
       </c>
       <c r="AY58" s="11">
-        <v>179156</v>
+        <v>244242</v>
       </c>
       <c r="AZ58" s="11">
-        <v>244242</v>
+        <v>245114</v>
       </c>
       <c r="BA58" s="11">
-        <v>245114</v>
+        <v>148158</v>
       </c>
       <c r="BB58" s="11">
-        <v>148158</v>
+        <v>226968</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -7583,77 +7583,77 @@
       <c r="AD59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE59" s="13" t="s">
-        <v>58</v>
+      <c r="AE59" s="13">
+        <v>295610</v>
       </c>
       <c r="AF59" s="13">
-        <v>295610</v>
+        <v>366734</v>
       </c>
       <c r="AG59" s="13">
-        <v>366734</v>
+        <v>364215</v>
       </c>
       <c r="AH59" s="13">
-        <v>364215</v>
+        <v>183295</v>
       </c>
       <c r="AI59" s="13">
-        <v>183295</v>
+        <v>358164</v>
       </c>
       <c r="AJ59" s="13">
-        <v>358164</v>
+        <v>507180</v>
       </c>
       <c r="AK59" s="13">
-        <v>507180</v>
+        <v>438333</v>
       </c>
       <c r="AL59" s="13">
-        <v>438333</v>
+        <v>471003</v>
       </c>
       <c r="AM59" s="13">
-        <v>471003</v>
+        <v>504929</v>
       </c>
       <c r="AN59" s="13">
-        <v>504929</v>
+        <v>407749</v>
       </c>
       <c r="AO59" s="13">
-        <v>407749</v>
+        <v>358218</v>
       </c>
       <c r="AP59" s="13">
-        <v>358218</v>
+        <v>480151</v>
       </c>
       <c r="AQ59" s="13">
-        <v>480151</v>
+        <v>252474</v>
       </c>
       <c r="AR59" s="13">
-        <v>252474</v>
+        <v>177860</v>
       </c>
       <c r="AS59" s="13">
-        <v>177860</v>
+        <v>436136</v>
       </c>
       <c r="AT59" s="13">
-        <v>436136</v>
+        <v>85533</v>
       </c>
       <c r="AU59" s="13">
-        <v>85533</v>
+        <v>9391</v>
       </c>
       <c r="AV59" s="13">
-        <v>9391</v>
+        <v>336012</v>
       </c>
       <c r="AW59" s="13">
-        <v>336012</v>
+        <v>585025</v>
       </c>
       <c r="AX59" s="13">
-        <v>585025</v>
+        <v>255269</v>
       </c>
       <c r="AY59" s="13">
-        <v>255269</v>
+        <v>450090</v>
       </c>
       <c r="AZ59" s="13">
-        <v>450090</v>
+        <v>799695</v>
       </c>
       <c r="BA59" s="13">
-        <v>799695</v>
+        <v>513161</v>
       </c>
       <c r="BB59" s="13">
-        <v>513161</v>
+        <v>549187</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -7742,77 +7742,77 @@
       <c r="AD60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE60" s="11" t="s">
-        <v>58</v>
+      <c r="AE60" s="11">
+        <v>18</v>
       </c>
       <c r="AF60" s="11">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="AG60" s="11">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AH60" s="11">
-        <v>36</v>
+        <v>566</v>
       </c>
       <c r="AI60" s="11">
-        <v>566</v>
+        <v>58</v>
       </c>
       <c r="AJ60" s="11">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="AK60" s="11">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AL60" s="11">
-        <v>24</v>
+        <v>307</v>
       </c>
       <c r="AM60" s="11">
-        <v>307</v>
+        <v>23</v>
       </c>
       <c r="AN60" s="11">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AO60" s="11">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="AP60" s="11">
-        <v>119</v>
+        <v>2474</v>
       </c>
       <c r="AQ60" s="11">
-        <v>2474</v>
+        <v>53</v>
       </c>
       <c r="AR60" s="11">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="AS60" s="11">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="AT60" s="11">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="AU60" s="11">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AV60" s="11">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="AW60" s="11">
-        <v>51</v>
+        <v>619</v>
       </c>
       <c r="AX60" s="11">
-        <v>619</v>
+        <v>147</v>
       </c>
       <c r="AY60" s="11">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="AZ60" s="11">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="BA60" s="11">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="BB60" s="11">
-        <v>200</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -7900,76 +7900,76 @@
         <v>0</v>
       </c>
       <c r="AE61" s="15">
-        <v>0</v>
+        <v>720419</v>
       </c>
       <c r="AF61" s="15">
-        <v>720419</v>
+        <v>853092</v>
       </c>
       <c r="AG61" s="15">
-        <v>853092</v>
+        <v>868684</v>
       </c>
       <c r="AH61" s="15">
-        <v>868684</v>
+        <v>419869</v>
       </c>
       <c r="AI61" s="15">
-        <v>419869</v>
+        <v>866559</v>
       </c>
       <c r="AJ61" s="15">
-        <v>866559</v>
+        <v>1238513</v>
       </c>
       <c r="AK61" s="15">
-        <v>1238513</v>
+        <v>1026599</v>
       </c>
       <c r="AL61" s="15">
-        <v>1026599</v>
+        <v>1012858</v>
       </c>
       <c r="AM61" s="15">
-        <v>1012858</v>
+        <v>1175454</v>
       </c>
       <c r="AN61" s="15">
-        <v>1175454</v>
+        <v>884762</v>
       </c>
       <c r="AO61" s="15">
-        <v>884762</v>
+        <v>751814</v>
       </c>
       <c r="AP61" s="15">
-        <v>751814</v>
+        <v>950013</v>
       </c>
       <c r="AQ61" s="15">
-        <v>950013</v>
+        <v>569415</v>
       </c>
       <c r="AR61" s="15">
-        <v>569415</v>
+        <v>552752</v>
       </c>
       <c r="AS61" s="15">
-        <v>552752</v>
+        <v>726755</v>
       </c>
       <c r="AT61" s="15">
-        <v>726755</v>
+        <v>256779</v>
       </c>
       <c r="AU61" s="15">
-        <v>256779</v>
+        <v>66504</v>
       </c>
       <c r="AV61" s="15">
-        <v>66504</v>
+        <v>724824</v>
       </c>
       <c r="AW61" s="15">
-        <v>724824</v>
+        <v>1146469</v>
       </c>
       <c r="AX61" s="15">
-        <v>1146469</v>
+        <v>795417</v>
       </c>
       <c r="AY61" s="15">
-        <v>795417</v>
+        <v>1033979</v>
       </c>
       <c r="AZ61" s="15">
-        <v>1033979</v>
+        <v>1599610</v>
       </c>
       <c r="BA61" s="15">
-        <v>1599610</v>
+        <v>1268577</v>
       </c>
       <c r="BB61" s="15">
-        <v>1268577</v>
+        <v>1370110</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8118,8 +8118,8 @@
       <c r="AE63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF63" s="11" t="s">
-        <v>58</v>
+      <c r="AF63" s="11">
+        <v>0</v>
       </c>
       <c r="AG63" s="11">
         <v>0</v>
@@ -8131,46 +8131,46 @@
         <v>0</v>
       </c>
       <c r="AJ63" s="11">
-        <v>0</v>
+        <v>12619</v>
       </c>
       <c r="AK63" s="11">
-        <v>12619</v>
+        <v>0</v>
       </c>
       <c r="AL63" s="11">
         <v>0</v>
       </c>
       <c r="AM63" s="11">
-        <v>0</v>
+        <v>21475</v>
       </c>
       <c r="AN63" s="11">
-        <v>21475</v>
+        <v>14502</v>
       </c>
       <c r="AO63" s="11">
-        <v>14502</v>
+        <v>0</v>
       </c>
       <c r="AP63" s="11">
-        <v>0</v>
+        <v>106938</v>
       </c>
       <c r="AQ63" s="11">
-        <v>106938</v>
+        <v>78329</v>
       </c>
       <c r="AR63" s="11">
-        <v>78329</v>
+        <v>145249</v>
       </c>
       <c r="AS63" s="11">
-        <v>145249</v>
+        <v>161730</v>
       </c>
       <c r="AT63" s="11">
-        <v>161730</v>
+        <v>23003</v>
       </c>
       <c r="AU63" s="11">
-        <v>23003</v>
+        <v>45208</v>
       </c>
       <c r="AV63" s="11">
-        <v>45208</v>
+        <v>-480</v>
       </c>
       <c r="AW63" s="11">
-        <v>-480</v>
+        <v>0</v>
       </c>
       <c r="AX63" s="11">
         <v>0</v>
@@ -8179,13 +8179,13 @@
         <v>0</v>
       </c>
       <c r="AZ63" s="11">
-        <v>0</v>
+        <v>24796</v>
       </c>
       <c r="BA63" s="11">
-        <v>24796</v>
+        <v>13210</v>
       </c>
       <c r="BB63" s="11">
-        <v>13210</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.3">
@@ -8307,23 +8307,23 @@
       <c r="AO64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ64" s="13">
+      <c r="AP64" s="13">
         <v>2374</v>
       </c>
+      <c r="AQ64" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AR64" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AS64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU64" s="13">
-        <v>0</v>
+      <c r="AT64" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU64" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV64" s="13" t="s">
         <v>58</v>
@@ -8343,8 +8343,8 @@
       <c r="BA64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BB64" s="13" t="s">
-        <v>58</v>
+      <c r="BB64" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -8436,23 +8436,23 @@
       <c r="AE65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF65" s="11" t="s">
-        <v>58</v>
+      <c r="AF65" s="11">
+        <v>0</v>
       </c>
       <c r="AG65" s="11">
-        <v>0</v>
+        <v>23584</v>
       </c>
       <c r="AH65" s="11">
-        <v>23584</v>
+        <v>2018</v>
       </c>
       <c r="AI65" s="11">
-        <v>2018</v>
+        <v>1906</v>
       </c>
       <c r="AJ65" s="11">
-        <v>1906</v>
+        <v>5762</v>
       </c>
       <c r="AK65" s="11">
-        <v>5762</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="11">
         <v>0</v>
@@ -8461,28 +8461,28 @@
         <v>0</v>
       </c>
       <c r="AN65" s="11">
-        <v>0</v>
+        <v>10698</v>
       </c>
       <c r="AO65" s="11">
-        <v>10698</v>
+        <v>2445</v>
       </c>
       <c r="AP65" s="11">
-        <v>2445</v>
-      </c>
-      <c r="AQ65" s="11">
         <v>30684</v>
       </c>
-      <c r="AR65" s="11" t="s">
-        <v>58</v>
+      <c r="AQ65" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR65" s="11">
+        <v>0</v>
       </c>
       <c r="AS65" s="11">
         <v>0</v>
       </c>
-      <c r="AT65" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU65" s="11" t="s">
-        <v>58</v>
+      <c r="AT65" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU65" s="11">
+        <v>0</v>
       </c>
       <c r="AV65" s="11">
         <v>0</v>
@@ -8491,19 +8491,19 @@
         <v>0</v>
       </c>
       <c r="AX65" s="11">
-        <v>0</v>
+        <v>13693</v>
       </c>
       <c r="AY65" s="11">
-        <v>13693</v>
+        <v>21546</v>
       </c>
       <c r="AZ65" s="11">
-        <v>21546</v>
+        <v>4608</v>
       </c>
       <c r="BA65" s="11">
-        <v>4608</v>
+        <v>0</v>
       </c>
       <c r="BB65" s="11">
-        <v>0</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -8592,77 +8592,77 @@
       <c r="AD66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE66" s="13" t="s">
-        <v>58</v>
+      <c r="AE66" s="13">
+        <v>0</v>
       </c>
       <c r="AF66" s="13">
-        <v>0</v>
+        <v>22903</v>
       </c>
       <c r="AG66" s="13">
-        <v>22903</v>
+        <v>0</v>
       </c>
       <c r="AH66" s="13">
         <v>0</v>
       </c>
       <c r="AI66" s="13">
-        <v>0</v>
+        <v>18762</v>
       </c>
       <c r="AJ66" s="13">
-        <v>18762</v>
+        <v>37067</v>
       </c>
       <c r="AK66" s="13">
-        <v>37067</v>
+        <v>0</v>
       </c>
       <c r="AL66" s="13">
-        <v>0</v>
+        <v>79644</v>
       </c>
       <c r="AM66" s="13">
-        <v>79644</v>
+        <v>100754</v>
       </c>
       <c r="AN66" s="13">
-        <v>100754</v>
+        <v>7268</v>
       </c>
       <c r="AO66" s="13">
-        <v>7268</v>
+        <v>4425</v>
       </c>
       <c r="AP66" s="13">
-        <v>4425</v>
+        <v>3615</v>
       </c>
       <c r="AQ66" s="13">
-        <v>3615</v>
+        <v>38650</v>
       </c>
       <c r="AR66" s="13">
-        <v>38650</v>
+        <v>39518</v>
       </c>
       <c r="AS66" s="13">
-        <v>39518</v>
+        <v>6981</v>
       </c>
       <c r="AT66" s="13">
-        <v>6981</v>
+        <v>37268</v>
       </c>
       <c r="AU66" s="13">
-        <v>37268</v>
+        <v>12729</v>
       </c>
       <c r="AV66" s="13">
-        <v>12729</v>
+        <v>0</v>
       </c>
       <c r="AW66" s="13">
-        <v>0</v>
+        <v>43963</v>
       </c>
       <c r="AX66" s="13">
-        <v>43963</v>
+        <v>89324</v>
       </c>
       <c r="AY66" s="13">
-        <v>89324</v>
+        <v>60796</v>
       </c>
       <c r="AZ66" s="13">
-        <v>60796</v>
+        <v>10730</v>
       </c>
       <c r="BA66" s="13">
-        <v>10730</v>
+        <v>37554</v>
       </c>
       <c r="BB66" s="13">
-        <v>37554</v>
+        <v>120731</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.3">
@@ -8753,73 +8753,73 @@
         <v>0</v>
       </c>
       <c r="AF67" s="17">
-        <v>0</v>
+        <v>22903</v>
       </c>
       <c r="AG67" s="17">
-        <v>22903</v>
+        <v>23584</v>
       </c>
       <c r="AH67" s="17">
-        <v>23584</v>
+        <v>2018</v>
       </c>
       <c r="AI67" s="17">
-        <v>2018</v>
+        <v>20668</v>
       </c>
       <c r="AJ67" s="17">
-        <v>20668</v>
+        <v>55448</v>
       </c>
       <c r="AK67" s="17">
-        <v>55448</v>
+        <v>0</v>
       </c>
       <c r="AL67" s="17">
-        <v>0</v>
+        <v>79644</v>
       </c>
       <c r="AM67" s="17">
-        <v>79644</v>
+        <v>122229</v>
       </c>
       <c r="AN67" s="17">
-        <v>122229</v>
+        <v>32468</v>
       </c>
       <c r="AO67" s="17">
-        <v>32468</v>
+        <v>6870</v>
       </c>
       <c r="AP67" s="17">
-        <v>6870</v>
+        <v>143611</v>
       </c>
       <c r="AQ67" s="17">
-        <v>143611</v>
+        <v>116979</v>
       </c>
       <c r="AR67" s="17">
-        <v>116979</v>
+        <v>184767</v>
       </c>
       <c r="AS67" s="17">
-        <v>184767</v>
+        <v>168711</v>
       </c>
       <c r="AT67" s="17">
-        <v>168711</v>
+        <v>60271</v>
       </c>
       <c r="AU67" s="17">
-        <v>60271</v>
+        <v>57937</v>
       </c>
       <c r="AV67" s="17">
-        <v>57937</v>
+        <v>-480</v>
       </c>
       <c r="AW67" s="17">
-        <v>-480</v>
+        <v>43963</v>
       </c>
       <c r="AX67" s="17">
-        <v>43963</v>
+        <v>103017</v>
       </c>
       <c r="AY67" s="17">
-        <v>103017</v>
+        <v>82342</v>
       </c>
       <c r="AZ67" s="17">
-        <v>82342</v>
+        <v>40134</v>
       </c>
       <c r="BA67" s="17">
-        <v>40134</v>
+        <v>50764</v>
       </c>
       <c r="BB67" s="17">
-        <v>50764</v>
+        <v>125032</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.3">
@@ -8965,8 +8965,8 @@
       <c r="AD69" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AE69" s="17" t="s">
-        <v>58</v>
+      <c r="AE69" s="17">
+        <v>0</v>
       </c>
       <c r="AF69" s="17">
         <v>0</v>
@@ -9223,8 +9223,8 @@
       <c r="AR71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS71" s="11" t="s">
-        <v>58</v>
+      <c r="AS71" s="11">
+        <v>0</v>
       </c>
       <c r="AT71" s="11">
         <v>0</v>
@@ -9340,8 +9340,8 @@
       <c r="AD72" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AE72" s="15" t="s">
-        <v>58</v>
+      <c r="AE72" s="15">
+        <v>0</v>
       </c>
       <c r="AF72" s="15">
         <v>0</v>
@@ -9556,8 +9556,8 @@
       <c r="AD74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE74" s="11" t="s">
-        <v>58</v>
+      <c r="AE74" s="11">
+        <v>0</v>
       </c>
       <c r="AF74" s="11">
         <v>0</v>
@@ -9714,76 +9714,76 @@
         <v>0</v>
       </c>
       <c r="AE75" s="15">
-        <v>0</v>
+        <v>720419</v>
       </c>
       <c r="AF75" s="15">
-        <v>720419</v>
+        <v>875995</v>
       </c>
       <c r="AG75" s="15">
-        <v>875995</v>
+        <v>892268</v>
       </c>
       <c r="AH75" s="15">
-        <v>892268</v>
+        <v>421887</v>
       </c>
       <c r="AI75" s="15">
-        <v>421887</v>
+        <v>887227</v>
       </c>
       <c r="AJ75" s="15">
-        <v>887227</v>
+        <v>1293961</v>
       </c>
       <c r="AK75" s="15">
-        <v>1293961</v>
+        <v>1026599</v>
       </c>
       <c r="AL75" s="15">
-        <v>1026599</v>
+        <v>1092502</v>
       </c>
       <c r="AM75" s="15">
-        <v>1092502</v>
+        <v>1297683</v>
       </c>
       <c r="AN75" s="15">
-        <v>1297683</v>
+        <v>917230</v>
       </c>
       <c r="AO75" s="15">
-        <v>917230</v>
+        <v>758684</v>
       </c>
       <c r="AP75" s="15">
-        <v>758684</v>
+        <v>1093624</v>
       </c>
       <c r="AQ75" s="15">
-        <v>1093624</v>
+        <v>686394</v>
       </c>
       <c r="AR75" s="15">
-        <v>686394</v>
+        <v>737519</v>
       </c>
       <c r="AS75" s="15">
-        <v>737519</v>
+        <v>895466</v>
       </c>
       <c r="AT75" s="15">
-        <v>895466</v>
+        <v>317050</v>
       </c>
       <c r="AU75" s="15">
-        <v>317050</v>
+        <v>124441</v>
       </c>
       <c r="AV75" s="15">
-        <v>124441</v>
+        <v>724344</v>
       </c>
       <c r="AW75" s="15">
-        <v>724344</v>
+        <v>1190432</v>
       </c>
       <c r="AX75" s="15">
-        <v>1190432</v>
+        <v>898434</v>
       </c>
       <c r="AY75" s="15">
-        <v>898434</v>
+        <v>1116321</v>
       </c>
       <c r="AZ75" s="15">
-        <v>1116321</v>
+        <v>1639744</v>
       </c>
       <c r="BA75" s="15">
-        <v>1639744</v>
+        <v>1319341</v>
       </c>
       <c r="BB75" s="15">
-        <v>1319341</v>
+        <v>1495142</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -10306,77 +10306,77 @@
       <c r="AD82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE82" s="11" t="s">
-        <v>58</v>
+      <c r="AE82" s="11">
+        <v>294501223</v>
       </c>
       <c r="AF82" s="11">
-        <v>294501223</v>
+        <v>330074503</v>
       </c>
       <c r="AG82" s="11">
-        <v>330074503</v>
+        <v>283736452</v>
       </c>
       <c r="AH82" s="11">
-        <v>283736452</v>
+        <v>296379487</v>
       </c>
       <c r="AI82" s="11">
-        <v>296379487</v>
+        <v>297255456</v>
       </c>
       <c r="AJ82" s="11">
-        <v>297255456</v>
+        <v>312009435</v>
       </c>
       <c r="AK82" s="11">
-        <v>312009435</v>
+        <v>345109392</v>
       </c>
       <c r="AL82" s="11">
-        <v>345109392</v>
+        <v>385303987</v>
       </c>
       <c r="AM82" s="11">
-        <v>385303987</v>
+        <v>364423033</v>
       </c>
       <c r="AN82" s="11">
-        <v>364423033</v>
+        <v>366675522</v>
       </c>
       <c r="AO82" s="11">
-        <v>366675522</v>
+        <v>402017738</v>
       </c>
       <c r="AP82" s="11">
-        <v>402017738</v>
+        <v>326698246</v>
       </c>
       <c r="AQ82" s="11">
-        <v>326698246</v>
+        <v>354379310</v>
       </c>
       <c r="AR82" s="11">
-        <v>354379310</v>
+        <v>338182819</v>
       </c>
       <c r="AS82" s="11">
-        <v>338182819</v>
+        <v>353010309</v>
       </c>
       <c r="AT82" s="11">
-        <v>353010309</v>
+        <v>450829897</v>
       </c>
       <c r="AU82" s="11">
-        <v>450829897</v>
+        <v>276174386</v>
       </c>
       <c r="AV82" s="11">
-        <v>276174386</v>
+        <v>516614341</v>
       </c>
       <c r="AW82" s="11">
-        <v>516614341</v>
+        <v>456263443</v>
       </c>
       <c r="AX82" s="11">
-        <v>456263443</v>
+        <v>460076803</v>
       </c>
       <c r="AY82" s="11">
-        <v>460076803</v>
+        <v>515397302</v>
       </c>
       <c r="AZ82" s="11">
-        <v>515397302</v>
+        <v>488418655</v>
       </c>
       <c r="BA82" s="11">
-        <v>488418655</v>
+        <v>552341034</v>
       </c>
       <c r="BB82" s="11">
-        <v>552341034</v>
+        <v>573252207</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -10465,77 +10465,77 @@
       <c r="AD83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE83" s="13" t="s">
-        <v>58</v>
+      <c r="AE83" s="13">
+        <v>101888015</v>
       </c>
       <c r="AF83" s="13">
-        <v>101888015</v>
+        <v>116944546</v>
       </c>
       <c r="AG83" s="13">
-        <v>116944546</v>
+        <v>105955895</v>
       </c>
       <c r="AH83" s="13">
-        <v>105955895</v>
+        <v>89526230</v>
       </c>
       <c r="AI83" s="13">
-        <v>89526230</v>
+        <v>98117530</v>
       </c>
       <c r="AJ83" s="13">
-        <v>98117530</v>
+        <v>123745122</v>
       </c>
       <c r="AK83" s="13">
-        <v>123745122</v>
+        <v>109223606</v>
       </c>
       <c r="AL83" s="13">
-        <v>109223606</v>
+        <v>128847518</v>
       </c>
       <c r="AM83" s="13">
-        <v>128847518</v>
+        <v>134061787</v>
       </c>
       <c r="AN83" s="13">
-        <v>134061787</v>
+        <v>121002407</v>
       </c>
       <c r="AO83" s="13">
-        <v>121002407</v>
+        <v>123456044</v>
       </c>
       <c r="AP83" s="13">
-        <v>123456044</v>
+        <v>97557531</v>
       </c>
       <c r="AQ83" s="13">
-        <v>97557531</v>
+        <v>130967192</v>
       </c>
       <c r="AR83" s="13">
-        <v>130967192</v>
+        <v>124658993</v>
       </c>
       <c r="AS83" s="13">
-        <v>124658993</v>
+        <v>137918797</v>
       </c>
       <c r="AT83" s="13">
-        <v>137918797</v>
+        <v>127105263</v>
       </c>
       <c r="AU83" s="13">
-        <v>127105263</v>
+        <v>104987203</v>
       </c>
       <c r="AV83" s="13">
-        <v>104987203</v>
+        <v>166156928</v>
       </c>
       <c r="AW83" s="13">
-        <v>166156928</v>
+        <v>162151459</v>
       </c>
       <c r="AX83" s="13">
-        <v>162151459</v>
+        <v>184164645</v>
       </c>
       <c r="AY83" s="13">
-        <v>184164645</v>
+        <v>179480492</v>
       </c>
       <c r="AZ83" s="13">
-        <v>179480492</v>
+        <v>163705329</v>
       </c>
       <c r="BA83" s="13">
-        <v>163705329</v>
+        <v>179760274</v>
       </c>
       <c r="BB83" s="13">
-        <v>179760274</v>
+        <v>166535885</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -10624,77 +10624,77 @@
       <c r="AD84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE84" s="11" t="s">
-        <v>58</v>
+      <c r="AE84" s="11">
+        <v>581228965</v>
       </c>
       <c r="AF84" s="11">
-        <v>581228965</v>
+        <v>623040617</v>
       </c>
       <c r="AG84" s="11">
-        <v>623040617</v>
+        <v>566834164</v>
       </c>
       <c r="AH84" s="11">
-        <v>566834164</v>
+        <v>548408333</v>
       </c>
       <c r="AI84" s="11">
-        <v>548408333</v>
+        <v>560581761</v>
       </c>
       <c r="AJ84" s="11">
-        <v>560581761</v>
+        <v>656394164</v>
       </c>
       <c r="AK84" s="11">
-        <v>656394164</v>
+        <v>637506471</v>
       </c>
       <c r="AL84" s="11">
-        <v>637506471</v>
+        <v>768544061</v>
       </c>
       <c r="AM84" s="11">
-        <v>768544061</v>
+        <v>716279863</v>
       </c>
       <c r="AN84" s="11">
-        <v>716279863</v>
+        <v>729908367</v>
       </c>
       <c r="AO84" s="11">
-        <v>729908367</v>
+        <v>826290541</v>
       </c>
       <c r="AP84" s="11">
-        <v>826290541</v>
+        <v>688296703</v>
       </c>
       <c r="AQ84" s="11">
-        <v>688296703</v>
+        <v>717544828</v>
       </c>
       <c r="AR84" s="11">
-        <v>717544828</v>
+        <v>694293814</v>
       </c>
       <c r="AS84" s="11">
-        <v>694293814</v>
+        <v>608215190</v>
       </c>
       <c r="AT84" s="11">
-        <v>608215190</v>
+        <v>723915254</v>
       </c>
       <c r="AU84" s="11">
-        <v>723915254</v>
+        <v>428773418</v>
       </c>
       <c r="AV84" s="11">
-        <v>428773418</v>
+        <v>956002970</v>
       </c>
       <c r="AW84" s="11">
-        <v>956002970</v>
+        <v>945737811</v>
       </c>
       <c r="AX84" s="11">
-        <v>945737811</v>
+        <v>937866035</v>
       </c>
       <c r="AY84" s="11">
-        <v>937866035</v>
+        <v>1026775407</v>
       </c>
       <c r="AZ84" s="11">
-        <v>1026775407</v>
+        <v>935549618</v>
       </c>
       <c r="BA84" s="11">
-        <v>935549618</v>
+        <v>1014780822</v>
       </c>
       <c r="BB84" s="11">
-        <v>1014780822</v>
+        <v>911518072</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -10783,77 +10783,77 @@
       <c r="AD85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE85" s="13" t="s">
-        <v>58</v>
+      <c r="AE85" s="13">
+        <v>144899050</v>
       </c>
       <c r="AF85" s="13">
-        <v>144899050</v>
+        <v>160989040</v>
       </c>
       <c r="AG85" s="13">
-        <v>160989040</v>
+        <v>148968735</v>
       </c>
       <c r="AH85" s="13">
-        <v>148968735</v>
+        <v>144897233</v>
       </c>
       <c r="AI85" s="13">
-        <v>144897233</v>
+        <v>147574784</v>
       </c>
       <c r="AJ85" s="13">
-        <v>147574784</v>
+        <v>168843936</v>
       </c>
       <c r="AK85" s="13">
-        <v>168843936</v>
+        <v>165388458</v>
       </c>
       <c r="AL85" s="13">
-        <v>165388458</v>
+        <v>195436929</v>
       </c>
       <c r="AM85" s="13">
-        <v>195436929</v>
+        <v>177979908</v>
       </c>
       <c r="AN85" s="13">
-        <v>177979908</v>
+        <v>180579717</v>
       </c>
       <c r="AO85" s="13">
-        <v>180579717</v>
+        <v>191151547</v>
       </c>
       <c r="AP85" s="13">
-        <v>191151547</v>
+        <v>166142215</v>
       </c>
       <c r="AQ85" s="13">
-        <v>166142215</v>
+        <v>175085992</v>
       </c>
       <c r="AR85" s="13">
-        <v>175085992</v>
+        <v>163174312</v>
       </c>
       <c r="AS85" s="13">
-        <v>163174312</v>
+        <v>189459600</v>
       </c>
       <c r="AT85" s="13">
-        <v>189459600</v>
+        <v>190073333</v>
       </c>
       <c r="AU85" s="13">
-        <v>190073333</v>
+        <v>135389184</v>
       </c>
       <c r="AV85" s="13">
-        <v>135389184</v>
+        <v>234784647</v>
       </c>
       <c r="AW85" s="13">
-        <v>234784647</v>
+        <v>240996687</v>
       </c>
       <c r="AX85" s="13">
-        <v>240996687</v>
+        <v>245321440</v>
       </c>
       <c r="AY85" s="13">
-        <v>245321440</v>
+        <v>242690879</v>
       </c>
       <c r="AZ85" s="13">
-        <v>242690879</v>
+        <v>240654529</v>
       </c>
       <c r="BA85" s="13">
-        <v>240654529</v>
+        <v>243781948</v>
       </c>
       <c r="BB85" s="13">
-        <v>243781948</v>
+        <v>234595045</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -10942,77 +10942,77 @@
       <c r="AD86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE86" s="11" t="s">
-        <v>58</v>
+      <c r="AE86" s="11">
+        <v>1800000000</v>
       </c>
       <c r="AF86" s="11">
-        <v>1800000000</v>
+        <v>1250000000</v>
       </c>
       <c r="AG86" s="11">
-        <v>1250000000</v>
+        <v>1058823529</v>
       </c>
       <c r="AH86" s="11">
-        <v>1058823529</v>
+        <v>17151515152</v>
       </c>
       <c r="AI86" s="11">
-        <v>17151515152</v>
+        <v>170588235</v>
       </c>
       <c r="AJ86" s="11">
-        <v>170588235</v>
+        <v>1700000000</v>
       </c>
       <c r="AK86" s="11">
-        <v>1700000000</v>
+        <v>2666666667</v>
       </c>
       <c r="AL86" s="11">
-        <v>2666666667</v>
+        <v>1615789474</v>
       </c>
       <c r="AM86" s="11">
-        <v>1615789474</v>
+        <v>575000000</v>
       </c>
       <c r="AN86" s="11">
-        <v>575000000</v>
+        <v>1500000000</v>
       </c>
       <c r="AO86" s="11">
-        <v>1500000000</v>
+        <v>3718750000</v>
       </c>
       <c r="AP86" s="11">
-        <v>3718750000</v>
+        <v>2550515464</v>
       </c>
       <c r="AQ86" s="11">
-        <v>2550515464</v>
+        <v>2650000000</v>
       </c>
       <c r="AR86" s="11">
-        <v>2650000000</v>
+        <v>1300000000</v>
       </c>
       <c r="AS86" s="11">
-        <v>1300000000</v>
-      </c>
-      <c r="AT86" s="11">
         <v>1580000000</v>
       </c>
-      <c r="AU86" s="11" t="s">
-        <v>58</v>
+      <c r="AT86" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU86" s="11">
+        <v>1428571429</v>
       </c>
       <c r="AV86" s="11">
-        <v>1428571429</v>
+        <v>2318181818</v>
       </c>
       <c r="AW86" s="11">
-        <v>2318181818</v>
+        <v>2127147766</v>
       </c>
       <c r="AX86" s="11">
-        <v>2127147766</v>
+        <v>1448866422</v>
       </c>
       <c r="AY86" s="11">
-        <v>1448866422</v>
+        <v>711111111</v>
       </c>
       <c r="AZ86" s="11">
-        <v>711111111</v>
+        <v>1750000000</v>
       </c>
       <c r="BA86" s="11">
-        <v>1750000000</v>
+        <v>1538461538</v>
       </c>
       <c r="BB86" s="11">
-        <v>1538461538</v>
+        <v>2028571429</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -11173,62 +11173,62 @@
       <c r="AI88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK88" s="11">
+      <c r="AJ88" s="11">
         <v>337045940</v>
       </c>
+      <c r="AK88" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AL88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM88" s="11" t="s">
-        <v>58</v>
+      <c r="AM88" s="11">
+        <v>302464789</v>
       </c>
       <c r="AN88" s="11">
-        <v>302464789</v>
-      </c>
-      <c r="AO88" s="11">
         <v>302125000</v>
       </c>
-      <c r="AP88" s="11" t="s">
-        <v>58</v>
+      <c r="AO88" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP88" s="11">
+        <v>285168000</v>
       </c>
       <c r="AQ88" s="11">
-        <v>285168000</v>
+        <v>278949430</v>
       </c>
       <c r="AR88" s="11">
-        <v>278949430</v>
+        <v>310361111</v>
       </c>
       <c r="AS88" s="11">
-        <v>310361111</v>
+        <v>345576923</v>
       </c>
       <c r="AT88" s="11">
-        <v>345576923</v>
+        <v>328614286</v>
       </c>
       <c r="AU88" s="11">
-        <v>328614286</v>
+        <v>456333441</v>
       </c>
       <c r="AV88" s="11">
-        <v>456333441</v>
-      </c>
-      <c r="AW88" s="11">
         <v>-341929</v>
       </c>
-      <c r="AX88" s="11" t="s">
-        <v>58</v>
+      <c r="AW88" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX88" s="11">
+        <v>0</v>
       </c>
       <c r="AY88" s="11">
         <v>0</v>
       </c>
       <c r="AZ88" s="11">
-        <v>0</v>
+        <v>413266667</v>
       </c>
       <c r="BA88" s="11">
-        <v>413266667</v>
-      </c>
-      <c r="BB88" s="11">
         <v>600454545</v>
+      </c>
+      <c r="BB88" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -11350,11 +11350,11 @@
       <c r="AO89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP89" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ89" s="13">
+      <c r="AP89" s="13">
         <v>237400000</v>
+      </c>
+      <c r="AQ89" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR89" s="13" t="s">
         <v>58</v>
@@ -11482,39 +11482,39 @@
       <c r="AF90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG90" s="11" t="s">
-        <v>58</v>
+      <c r="AG90" s="11">
+        <v>511814540</v>
       </c>
       <c r="AH90" s="11">
-        <v>511814540</v>
+        <v>504500000</v>
       </c>
       <c r="AI90" s="11">
-        <v>504500000</v>
+        <v>478894472</v>
       </c>
       <c r="AJ90" s="11">
-        <v>478894472</v>
-      </c>
-      <c r="AK90" s="11">
         <v>560287826</v>
       </c>
+      <c r="AK90" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AL90" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AM90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN90" s="11" t="s">
-        <v>58</v>
+      <c r="AN90" s="11">
+        <v>629294118</v>
       </c>
       <c r="AO90" s="11">
-        <v>629294118</v>
+        <v>611250000</v>
       </c>
       <c r="AP90" s="11">
-        <v>611250000</v>
-      </c>
-      <c r="AQ90" s="11">
         <v>601647059</v>
       </c>
+      <c r="AQ90" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AR90" s="11" t="s">
         <v>58</v>
       </c>
@@ -11533,20 +11533,20 @@
       <c r="AW90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX90" s="11" t="s">
-        <v>58</v>
+      <c r="AX90" s="11">
+        <v>792418981</v>
       </c>
       <c r="AY90" s="11">
-        <v>792418981</v>
+        <v>701367188</v>
       </c>
       <c r="AZ90" s="11">
-        <v>701367188</v>
-      </c>
-      <c r="BA90" s="11">
         <v>768000000</v>
       </c>
-      <c r="BB90" s="11" t="s">
-        <v>58</v>
+      <c r="BA90" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB90" s="11">
+        <v>716833333</v>
       </c>
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.3">
@@ -11638,74 +11638,74 @@
       <c r="AE91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF91" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG91" s="13">
+      <c r="AF91" s="13">
         <v>145916157</v>
       </c>
+      <c r="AG91" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI91" s="13" t="s">
-        <v>58</v>
+      <c r="AI91" s="13">
+        <v>137955882</v>
       </c>
       <c r="AJ91" s="13">
-        <v>137955882</v>
-      </c>
-      <c r="AK91" s="13">
         <v>149572270</v>
       </c>
-      <c r="AL91" s="13" t="s">
-        <v>58</v>
+      <c r="AK91" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL91" s="13">
+        <v>184788863</v>
       </c>
       <c r="AM91" s="13">
-        <v>184788863</v>
+        <v>171642249</v>
       </c>
       <c r="AN91" s="13">
-        <v>171642249</v>
+        <v>161511111</v>
       </c>
       <c r="AO91" s="13">
-        <v>161511111</v>
+        <v>201136364</v>
       </c>
       <c r="AP91" s="13">
-        <v>201136364</v>
+        <v>164318182</v>
       </c>
       <c r="AQ91" s="13">
-        <v>164318182</v>
+        <v>141202689</v>
       </c>
       <c r="AR91" s="13">
-        <v>141202689</v>
+        <v>131289037</v>
       </c>
       <c r="AS91" s="13">
-        <v>131289037</v>
+        <v>162348837</v>
       </c>
       <c r="AT91" s="13">
-        <v>162348837</v>
+        <v>162742358</v>
       </c>
       <c r="AU91" s="13">
-        <v>162742358</v>
+        <v>155269508</v>
       </c>
       <c r="AV91" s="13">
-        <v>155269508</v>
+        <v>0</v>
       </c>
       <c r="AW91" s="13">
-        <v>0</v>
+        <v>242889503</v>
       </c>
       <c r="AX91" s="13">
-        <v>242889503</v>
+        <v>247268281</v>
       </c>
       <c r="AY91" s="13">
-        <v>247268281</v>
+        <v>241248375</v>
       </c>
       <c r="AZ91" s="13">
-        <v>241248375</v>
+        <v>228297872</v>
       </c>
       <c r="BA91" s="13">
-        <v>228297872</v>
+        <v>234712500</v>
       </c>
       <c r="BB91" s="13">
-        <v>234712500</v>
+        <v>182373112</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/shoyande/shegol/product/monthly_seprated.xlsx
+++ b/database/industries/shoyande/shegol/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\shegol\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\shegol\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096F4378-CC74-470B-837A-A0170C7DC5CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6314BD-7F80-4F66-8171-28F770452EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="88">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شگل-گلتاش‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 11 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 12 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 1 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 12 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 1 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -766,12 +766,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -826,7 +826,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -883,7 +883,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -940,7 +940,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -995,7 +995,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1052,7 +1052,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1164,7 +1164,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1376,7 +1376,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1433,7 +1433,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1513,86 +1513,86 @@
       <c r="AB11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD11" s="11" t="s">
-        <v>58</v>
+      <c r="AC11" s="11">
+        <v>716</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>734</v>
       </c>
       <c r="AE11" s="11">
-        <v>716</v>
+        <v>773</v>
       </c>
       <c r="AF11" s="11">
-        <v>734</v>
+        <v>521</v>
       </c>
       <c r="AG11" s="11">
-        <v>773</v>
+        <v>830</v>
       </c>
       <c r="AH11" s="11">
-        <v>521</v>
+        <v>1055</v>
       </c>
       <c r="AI11" s="11">
-        <v>830</v>
+        <v>879</v>
       </c>
       <c r="AJ11" s="11">
-        <v>1055</v>
+        <v>853</v>
       </c>
       <c r="AK11" s="11">
-        <v>879</v>
+        <v>825</v>
       </c>
       <c r="AL11" s="11">
-        <v>853</v>
+        <v>908</v>
       </c>
       <c r="AM11" s="11">
-        <v>825</v>
+        <v>655</v>
       </c>
       <c r="AN11" s="11">
-        <v>908</v>
+        <v>577</v>
       </c>
       <c r="AO11" s="11">
-        <v>655</v>
+        <v>486</v>
       </c>
       <c r="AP11" s="11">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="AQ11" s="11">
-        <v>486</v>
+        <v>760</v>
       </c>
       <c r="AR11" s="11">
-        <v>597</v>
+        <v>294</v>
       </c>
       <c r="AS11" s="11">
-        <v>760</v>
+        <v>337</v>
       </c>
       <c r="AT11" s="11">
-        <v>294</v>
+        <v>697</v>
       </c>
       <c r="AU11" s="11">
-        <v>337</v>
+        <v>648</v>
       </c>
       <c r="AV11" s="11">
-        <v>697</v>
+        <v>359</v>
       </c>
       <c r="AW11" s="11">
-        <v>648</v>
+        <v>738</v>
       </c>
       <c r="AX11" s="11">
-        <v>359</v>
+        <v>733</v>
       </c>
       <c r="AY11" s="11">
-        <v>738</v>
+        <v>842</v>
       </c>
       <c r="AZ11" s="11">
-        <v>733</v>
+        <v>855</v>
       </c>
       <c r="BA11" s="11">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="BB11" s="11">
-        <v>857</v>
+        <v>1185</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1672,86 +1672,86 @@
       <c r="AB12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD12" s="13" t="s">
-        <v>58</v>
+      <c r="AC12" s="13">
+        <v>972</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>1061</v>
       </c>
       <c r="AE12" s="13">
-        <v>972</v>
+        <v>1239</v>
       </c>
       <c r="AF12" s="13">
-        <v>1061</v>
+        <v>611</v>
       </c>
       <c r="AG12" s="13">
-        <v>1239</v>
+        <v>1041</v>
       </c>
       <c r="AH12" s="13">
-        <v>611</v>
+        <v>1006</v>
       </c>
       <c r="AI12" s="13">
-        <v>1041</v>
+        <v>958</v>
       </c>
       <c r="AJ12" s="13">
-        <v>1006</v>
+        <v>758</v>
       </c>
       <c r="AK12" s="13">
-        <v>958</v>
+        <v>919</v>
       </c>
       <c r="AL12" s="13">
-        <v>758</v>
+        <v>777</v>
       </c>
       <c r="AM12" s="13">
-        <v>919</v>
+        <v>669</v>
       </c>
       <c r="AN12" s="13">
-        <v>777</v>
+        <v>1138</v>
       </c>
       <c r="AO12" s="13">
-        <v>669</v>
+        <v>736</v>
       </c>
       <c r="AP12" s="13">
-        <v>1138</v>
+        <v>560</v>
       </c>
       <c r="AQ12" s="13">
-        <v>736</v>
+        <v>671</v>
       </c>
       <c r="AR12" s="13">
-        <v>560</v>
+        <v>281</v>
       </c>
       <c r="AS12" s="13">
-        <v>671</v>
+        <v>370</v>
       </c>
       <c r="AT12" s="13">
-        <v>281</v>
+        <v>553</v>
       </c>
       <c r="AU12" s="13">
-        <v>370</v>
+        <v>616</v>
       </c>
       <c r="AV12" s="13">
-        <v>553</v>
+        <v>212</v>
       </c>
       <c r="AW12" s="13">
-        <v>616</v>
+        <v>436</v>
       </c>
       <c r="AX12" s="13">
-        <v>212</v>
+        <v>872</v>
       </c>
       <c r="AY12" s="13">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="AZ12" s="13">
-        <v>872</v>
+        <v>945</v>
       </c>
       <c r="BA12" s="13">
-        <v>426</v>
+        <v>778</v>
       </c>
       <c r="BB12" s="13">
-        <v>945</v>
+        <v>1078</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1831,86 +1831,86 @@
       <c r="AB13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD13" s="11" t="s">
-        <v>58</v>
+      <c r="AC13" s="11">
+        <v>270</v>
+      </c>
+      <c r="AD13" s="11">
+        <v>272</v>
       </c>
       <c r="AE13" s="11">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="AF13" s="11">
-        <v>272</v>
+        <v>156</v>
       </c>
       <c r="AG13" s="11">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="AH13" s="11">
-        <v>156</v>
+        <v>282</v>
       </c>
       <c r="AI13" s="11">
-        <v>256</v>
+        <v>367</v>
       </c>
       <c r="AJ13" s="11">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="AK13" s="11">
-        <v>367</v>
+        <v>309</v>
       </c>
       <c r="AL13" s="11">
+        <v>340</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>302</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>165</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>153</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>77</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>38</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>43</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>49</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>245</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>202</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>194</v>
+      </c>
+      <c r="AW13" s="11">
+        <v>253</v>
+      </c>
+      <c r="AX13" s="11">
+        <v>220</v>
+      </c>
+      <c r="AY13" s="11">
+        <v>123</v>
+      </c>
+      <c r="AZ13" s="11">
+        <v>278</v>
+      </c>
+      <c r="BA13" s="11">
+        <v>228</v>
+      </c>
+      <c r="BB13" s="11">
         <v>273</v>
       </c>
-      <c r="AM13" s="11">
-        <v>309</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>340</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>302</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>165</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>153</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>77</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>38</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>43</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>49</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>245</v>
-      </c>
-      <c r="AW13" s="11">
-        <v>202</v>
-      </c>
-      <c r="AX13" s="11">
-        <v>194</v>
-      </c>
-      <c r="AY13" s="11">
-        <v>253</v>
-      </c>
-      <c r="AZ13" s="11">
-        <v>220</v>
-      </c>
-      <c r="BA13" s="11">
-        <v>123</v>
-      </c>
-      <c r="BB13" s="11">
-        <v>278</v>
-      </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1990,86 +1990,86 @@
       <c r="AB14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD14" s="13" t="s">
-        <v>58</v>
+      <c r="AC14" s="13">
+        <v>2460</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>2244</v>
       </c>
       <c r="AE14" s="13">
-        <v>2460</v>
+        <v>2483</v>
       </c>
       <c r="AF14" s="13">
-        <v>2244</v>
+        <v>1320</v>
       </c>
       <c r="AG14" s="13">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="AH14" s="13">
-        <v>1320</v>
+        <v>2977</v>
       </c>
       <c r="AI14" s="13">
-        <v>2480</v>
+        <v>3089</v>
       </c>
       <c r="AJ14" s="13">
-        <v>2977</v>
+        <v>2685</v>
       </c>
       <c r="AK14" s="13">
-        <v>3089</v>
+        <v>3135</v>
       </c>
       <c r="AL14" s="13">
-        <v>2685</v>
+        <v>2478</v>
       </c>
       <c r="AM14" s="13">
-        <v>3135</v>
+        <v>1757</v>
       </c>
       <c r="AN14" s="13">
-        <v>2478</v>
+        <v>3037</v>
       </c>
       <c r="AO14" s="13">
-        <v>1757</v>
+        <v>1847</v>
       </c>
       <c r="AP14" s="13">
-        <v>3037</v>
+        <v>1504</v>
       </c>
       <c r="AQ14" s="13">
-        <v>1847</v>
+        <v>1808</v>
       </c>
       <c r="AR14" s="13">
-        <v>1504</v>
+        <v>614</v>
       </c>
       <c r="AS14" s="13">
-        <v>1808</v>
+        <v>699</v>
       </c>
       <c r="AT14" s="13">
-        <v>614</v>
+        <v>2187</v>
       </c>
       <c r="AU14" s="13">
-        <v>699</v>
+        <v>2018</v>
       </c>
       <c r="AV14" s="13">
-        <v>2187</v>
+        <v>950</v>
       </c>
       <c r="AW14" s="13">
-        <v>2018</v>
+        <v>2491</v>
       </c>
       <c r="AX14" s="13">
-        <v>950</v>
+        <v>2794</v>
       </c>
       <c r="AY14" s="13">
-        <v>2491</v>
+        <v>2415</v>
       </c>
       <c r="AZ14" s="13">
-        <v>2794</v>
+        <v>2695</v>
       </c>
       <c r="BA14" s="13">
-        <v>2415</v>
+        <v>3371</v>
       </c>
       <c r="BB14" s="13">
-        <v>2694</v>
+        <v>3610</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2149,14 +2149,14 @@
       <c r="AB15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD15" s="11" t="s">
-        <v>58</v>
+      <c r="AC15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>0</v>
       </c>
       <c r="AE15" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF15" s="11">
         <v>0</v>
@@ -2167,20 +2167,20 @@
       <c r="AH15" s="11">
         <v>0</v>
       </c>
-      <c r="AI15" s="11">
-        <v>2</v>
+      <c r="AI15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ15" s="11">
         <v>0</v>
       </c>
-      <c r="AK15" s="11" t="s">
-        <v>58</v>
+      <c r="AK15" s="11">
+        <v>4</v>
       </c>
       <c r="AL15" s="11">
         <v>0</v>
       </c>
       <c r="AM15" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="11">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>63</v>
       </c>
@@ -2307,85 +2307,85 @@
         <v>0</v>
       </c>
       <c r="AC16" s="15">
-        <v>0</v>
+        <v>4418</v>
       </c>
       <c r="AD16" s="15">
-        <v>0</v>
+        <v>4311</v>
       </c>
       <c r="AE16" s="15">
-        <v>4418</v>
+        <v>4727</v>
       </c>
       <c r="AF16" s="15">
-        <v>4311</v>
+        <v>2608</v>
       </c>
       <c r="AG16" s="15">
-        <v>4727</v>
+        <v>4609</v>
       </c>
       <c r="AH16" s="15">
-        <v>2608</v>
+        <v>5320</v>
       </c>
       <c r="AI16" s="15">
-        <v>4609</v>
+        <v>5293</v>
       </c>
       <c r="AJ16" s="15">
-        <v>5320</v>
+        <v>4569</v>
       </c>
       <c r="AK16" s="15">
-        <v>5293</v>
+        <v>5191</v>
       </c>
       <c r="AL16" s="15">
-        <v>4569</v>
+        <v>4503</v>
       </c>
       <c r="AM16" s="15">
-        <v>5191</v>
+        <v>3383</v>
       </c>
       <c r="AN16" s="15">
-        <v>4503</v>
+        <v>4917</v>
       </c>
       <c r="AO16" s="15">
-        <v>3383</v>
+        <v>3222</v>
       </c>
       <c r="AP16" s="15">
-        <v>4917</v>
+        <v>2738</v>
       </c>
       <c r="AQ16" s="15">
-        <v>3222</v>
+        <v>3277</v>
       </c>
       <c r="AR16" s="15">
-        <v>2738</v>
+        <v>1232</v>
       </c>
       <c r="AS16" s="15">
-        <v>3277</v>
+        <v>1455</v>
       </c>
       <c r="AT16" s="15">
-        <v>1232</v>
+        <v>3682</v>
       </c>
       <c r="AU16" s="15">
-        <v>1455</v>
+        <v>3484</v>
       </c>
       <c r="AV16" s="15">
-        <v>3682</v>
+        <v>1715</v>
       </c>
       <c r="AW16" s="15">
-        <v>3484</v>
+        <v>3918</v>
       </c>
       <c r="AX16" s="15">
-        <v>1715</v>
+        <v>4619</v>
       </c>
       <c r="AY16" s="15">
-        <v>3918</v>
+        <v>3806</v>
       </c>
       <c r="AZ16" s="15">
-        <v>4619</v>
+        <v>4773</v>
       </c>
       <c r="BA16" s="15">
-        <v>3806</v>
+        <v>5206</v>
       </c>
       <c r="BB16" s="15">
-        <v>4774</v>
+        <v>6146</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
         <v>64</v>
       </c>
@@ -2442,7 +2442,7 @@
       <c r="BA17" s="9"/>
       <c r="BB17" s="9"/>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>56</v>
       </c>
@@ -2525,35 +2525,35 @@
       <c r="AC18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE18" s="11" t="s">
-        <v>58</v>
+      <c r="AD18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="11">
+        <v>0</v>
       </c>
       <c r="AF18" s="11">
         <v>0</v>
       </c>
-      <c r="AG18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="11" t="s">
-        <v>58</v>
+      <c r="AG18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI18" s="11">
+        <v>0</v>
       </c>
       <c r="AJ18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM18" s="11" t="s">
-        <v>58</v>
+      <c r="AK18" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="11">
+        <v>0</v>
       </c>
       <c r="AN18" s="11">
         <v>0</v>
@@ -2561,14 +2561,14 @@
       <c r="AO18" s="11">
         <v>0</v>
       </c>
-      <c r="AP18" s="11">
-        <v>0</v>
+      <c r="AP18" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ18" s="11">
         <v>0</v>
       </c>
-      <c r="AR18" s="11" t="s">
-        <v>58</v>
+      <c r="AR18" s="11">
+        <v>0</v>
       </c>
       <c r="AS18" s="11">
         <v>0</v>
@@ -2601,7 +2601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>59</v>
       </c>
@@ -2726,14 +2726,14 @@
       <c r="AQ19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT19" s="13">
-        <v>0</v>
+      <c r="AR19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU19" s="13" t="s">
         <v>58</v>
@@ -2750,17 +2750,17 @@
       <c r="AY19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ19" s="13" t="s">
-        <v>58</v>
+      <c r="AZ19" s="13">
+        <v>0</v>
       </c>
       <c r="BA19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BB19" s="13">
-        <v>0</v>
+      <c r="BB19" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>60</v>
       </c>
@@ -2843,56 +2843,56 @@
       <c r="AC20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE20" s="11" t="s">
-        <v>58</v>
+      <c r="AD20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="11">
+        <v>0</v>
       </c>
       <c r="AF20" s="11">
         <v>0</v>
       </c>
-      <c r="AG20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="11" t="s">
-        <v>58</v>
+      <c r="AG20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI20" s="11">
+        <v>0</v>
       </c>
       <c r="AJ20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM20" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="11">
-        <v>0</v>
+      <c r="AK20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO20" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ20" s="11" t="s">
-        <v>58</v>
+      <c r="AQ20" s="11">
+        <v>0</v>
       </c>
       <c r="AR20" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT20" s="11" t="s">
-        <v>58</v>
+      <c r="AS20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT20" s="11">
+        <v>0</v>
       </c>
       <c r="AU20" s="11">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>61</v>
       </c>
@@ -2999,11 +2999,11 @@
       <c r="AB21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD21" s="13" t="s">
-        <v>58</v>
+      <c r="AC21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="13">
+        <v>0</v>
       </c>
       <c r="AE21" s="13">
         <v>0</v>
@@ -3011,26 +3011,26 @@
       <c r="AF21" s="13">
         <v>0</v>
       </c>
-      <c r="AG21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="13" t="s">
-        <v>58</v>
+      <c r="AG21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI21" s="13">
+        <v>0</v>
       </c>
       <c r="AJ21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM21" s="13" t="s">
-        <v>58</v>
+      <c r="AK21" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL21" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="13">
+        <v>0</v>
       </c>
       <c r="AN21" s="13">
         <v>0</v>
@@ -3038,14 +3038,14 @@
       <c r="AO21" s="13">
         <v>0</v>
       </c>
-      <c r="AP21" s="13">
-        <v>0</v>
+      <c r="AP21" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ21" s="13">
         <v>0</v>
       </c>
-      <c r="AR21" s="13" t="s">
-        <v>58</v>
+      <c r="AR21" s="13">
+        <v>0</v>
       </c>
       <c r="AS21" s="13">
         <v>0</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>65</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
         <v>66</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="BA23" s="19"/>
       <c r="BB23" s="19"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
         <v>67</v>
       </c>
@@ -3370,11 +3370,11 @@
       <c r="AB24" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AC24" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD24" s="17" t="s">
-        <v>58</v>
+      <c r="AC24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="17">
+        <v>0</v>
       </c>
       <c r="AE24" s="17">
         <v>0</v>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>68</v>
       </c>
@@ -3528,85 +3528,85 @@
         <v>0</v>
       </c>
       <c r="AC25" s="15">
-        <v>0</v>
+        <v>4418</v>
       </c>
       <c r="AD25" s="15">
-        <v>0</v>
+        <v>4311</v>
       </c>
       <c r="AE25" s="15">
-        <v>4418</v>
+        <v>4727</v>
       </c>
       <c r="AF25" s="15">
-        <v>4311</v>
+        <v>2608</v>
       </c>
       <c r="AG25" s="15">
-        <v>4727</v>
+        <v>4609</v>
       </c>
       <c r="AH25" s="15">
-        <v>2608</v>
+        <v>5320</v>
       </c>
       <c r="AI25" s="15">
-        <v>4609</v>
+        <v>5293</v>
       </c>
       <c r="AJ25" s="15">
-        <v>5320</v>
+        <v>4569</v>
       </c>
       <c r="AK25" s="15">
-        <v>5293</v>
+        <v>5191</v>
       </c>
       <c r="AL25" s="15">
-        <v>4569</v>
+        <v>4503</v>
       </c>
       <c r="AM25" s="15">
-        <v>5191</v>
+        <v>3383</v>
       </c>
       <c r="AN25" s="15">
-        <v>4503</v>
+        <v>4917</v>
       </c>
       <c r="AO25" s="15">
-        <v>3383</v>
+        <v>3222</v>
       </c>
       <c r="AP25" s="15">
-        <v>4917</v>
+        <v>2738</v>
       </c>
       <c r="AQ25" s="15">
-        <v>3222</v>
+        <v>3277</v>
       </c>
       <c r="AR25" s="15">
-        <v>2738</v>
+        <v>1232</v>
       </c>
       <c r="AS25" s="15">
-        <v>3277</v>
+        <v>1455</v>
       </c>
       <c r="AT25" s="15">
-        <v>1232</v>
+        <v>3682</v>
       </c>
       <c r="AU25" s="15">
-        <v>1455</v>
+        <v>3484</v>
       </c>
       <c r="AV25" s="15">
-        <v>3682</v>
+        <v>1715</v>
       </c>
       <c r="AW25" s="15">
-        <v>3484</v>
+        <v>3918</v>
       </c>
       <c r="AX25" s="15">
-        <v>1715</v>
+        <v>4619</v>
       </c>
       <c r="AY25" s="15">
-        <v>3918</v>
+        <v>3806</v>
       </c>
       <c r="AZ25" s="15">
-        <v>4619</v>
+        <v>4773</v>
       </c>
       <c r="BA25" s="15">
-        <v>3806</v>
+        <v>5206</v>
       </c>
       <c r="BB25" s="15">
-        <v>4774</v>
+        <v>6146</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3661,7 +3661,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3716,7 +3716,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3771,7 +3771,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>69</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -3983,7 +3983,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>70</v>
       </c>
@@ -4040,7 +4040,7 @@
       <c r="BA31" s="9"/>
       <c r="BB31" s="9"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>56</v>
       </c>
@@ -4120,86 +4120,86 @@
       <c r="AB32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD32" s="11" t="s">
-        <v>58</v>
+      <c r="AC32" s="11">
+        <v>687</v>
+      </c>
+      <c r="AD32" s="11">
+        <v>670</v>
       </c>
       <c r="AE32" s="11">
-        <v>687</v>
+        <v>773</v>
       </c>
       <c r="AF32" s="11">
-        <v>670</v>
+        <v>390</v>
       </c>
       <c r="AG32" s="11">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="AH32" s="11">
-        <v>390</v>
+        <v>1228</v>
       </c>
       <c r="AI32" s="11">
-        <v>779</v>
+        <v>901</v>
       </c>
       <c r="AJ32" s="11">
-        <v>1228</v>
+        <v>602</v>
       </c>
       <c r="AK32" s="11">
-        <v>901</v>
+        <v>877</v>
       </c>
       <c r="AL32" s="11">
-        <v>602</v>
+        <v>527</v>
       </c>
       <c r="AM32" s="11">
-        <v>877</v>
+        <v>451</v>
       </c>
       <c r="AN32" s="11">
-        <v>527</v>
+        <v>570</v>
       </c>
       <c r="AO32" s="11">
-        <v>451</v>
+        <v>319</v>
       </c>
       <c r="AP32" s="11">
-        <v>570</v>
+        <v>454</v>
       </c>
       <c r="AQ32" s="11">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="AR32" s="11">
-        <v>454</v>
+        <v>194</v>
       </c>
       <c r="AS32" s="11">
-        <v>291</v>
+        <v>121</v>
       </c>
       <c r="AT32" s="11">
-        <v>194</v>
+        <v>318</v>
       </c>
       <c r="AU32" s="11">
-        <v>121</v>
+        <v>658</v>
       </c>
       <c r="AV32" s="11">
-        <v>306</v>
+        <v>596</v>
       </c>
       <c r="AW32" s="11">
-        <v>658</v>
+        <v>501</v>
       </c>
       <c r="AX32" s="11">
-        <v>596</v>
+        <v>922</v>
       </c>
       <c r="AY32" s="11">
-        <v>514</v>
+        <v>909</v>
       </c>
       <c r="AZ32" s="11">
-        <v>922</v>
+        <v>793</v>
       </c>
       <c r="BA32" s="11">
-        <v>909</v>
+        <v>601</v>
       </c>
       <c r="BB32" s="11">
-        <v>793</v>
+        <v>904</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>59</v>
       </c>
@@ -4279,86 +4279,86 @@
       <c r="AB33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD33" s="13" t="s">
-        <v>58</v>
+      <c r="AC33" s="13">
+        <v>1065</v>
+      </c>
+      <c r="AD33" s="13">
+        <v>1038</v>
       </c>
       <c r="AE33" s="13">
-        <v>1065</v>
+        <v>1152</v>
       </c>
       <c r="AF33" s="13">
-        <v>1038</v>
+        <v>610</v>
       </c>
       <c r="AG33" s="13">
-        <v>1152</v>
+        <v>1004</v>
       </c>
       <c r="AH33" s="13">
-        <v>610</v>
+        <v>945</v>
       </c>
       <c r="AI33" s="13">
-        <v>1004</v>
+        <v>860</v>
       </c>
       <c r="AJ33" s="13">
-        <v>945</v>
+        <v>846</v>
       </c>
       <c r="AK33" s="13">
-        <v>860</v>
+        <v>1052</v>
       </c>
       <c r="AL33" s="13">
-        <v>846</v>
+        <v>831</v>
       </c>
       <c r="AM33" s="13">
-        <v>1052</v>
+        <v>728</v>
       </c>
       <c r="AN33" s="13">
-        <v>831</v>
+        <v>956</v>
       </c>
       <c r="AO33" s="13">
-        <v>728</v>
+        <v>762</v>
       </c>
       <c r="AP33" s="13">
-        <v>956</v>
+        <v>695</v>
       </c>
       <c r="AQ33" s="13">
-        <v>762</v>
+        <v>665</v>
       </c>
       <c r="AR33" s="13">
-        <v>695</v>
+        <v>323</v>
       </c>
       <c r="AS33" s="13">
-        <v>665</v>
+        <v>121</v>
       </c>
       <c r="AT33" s="13">
-        <v>323</v>
+        <v>588</v>
       </c>
       <c r="AU33" s="13">
-        <v>121</v>
+        <v>588</v>
       </c>
       <c r="AV33" s="13">
-        <v>588</v>
+        <v>471</v>
       </c>
       <c r="AW33" s="13">
-        <v>588</v>
+        <v>462</v>
       </c>
       <c r="AX33" s="13">
-        <v>471</v>
+        <v>638</v>
       </c>
       <c r="AY33" s="13">
-        <v>459</v>
+        <v>584</v>
       </c>
       <c r="AZ33" s="13">
-        <v>638</v>
+        <v>836</v>
       </c>
       <c r="BA33" s="13">
-        <v>584</v>
+        <v>633</v>
       </c>
       <c r="BB33" s="13">
-        <v>836</v>
+        <v>782</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>60</v>
       </c>
@@ -4438,86 +4438,86 @@
       <c r="AB34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD34" s="11" t="s">
-        <v>58</v>
+      <c r="AC34" s="11">
+        <v>196</v>
+      </c>
+      <c r="AD34" s="11">
+        <v>231</v>
       </c>
       <c r="AE34" s="11">
-        <v>196</v>
+        <v>287</v>
       </c>
       <c r="AF34" s="11">
-        <v>231</v>
+        <v>120</v>
       </c>
       <c r="AG34" s="11">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="AH34" s="11">
-        <v>120</v>
+        <v>352</v>
       </c>
       <c r="AI34" s="11">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="AJ34" s="11">
-        <v>352</v>
+        <v>261</v>
       </c>
       <c r="AK34" s="11">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AL34" s="11">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="AM34" s="11">
-        <v>293</v>
+        <v>148</v>
       </c>
       <c r="AN34" s="11">
+        <v>273</v>
+      </c>
+      <c r="AO34" s="11">
+        <v>145</v>
+      </c>
+      <c r="AP34" s="11">
+        <v>194</v>
+      </c>
+      <c r="AQ34" s="11">
+        <v>158</v>
+      </c>
+      <c r="AR34" s="11">
+        <v>59</v>
+      </c>
+      <c r="AS34" s="11">
+        <v>25</v>
+      </c>
+      <c r="AT34" s="11">
+        <v>134</v>
+      </c>
+      <c r="AU34" s="11">
+        <v>175</v>
+      </c>
+      <c r="AV34" s="11">
+        <v>191</v>
+      </c>
+      <c r="AW34" s="11">
+        <v>241</v>
+      </c>
+      <c r="AX34" s="11">
+        <v>262</v>
+      </c>
+      <c r="AY34" s="11">
+        <v>146</v>
+      </c>
+      <c r="AZ34" s="11">
+        <v>249</v>
+      </c>
+      <c r="BA34" s="11">
         <v>251</v>
       </c>
-      <c r="AO34" s="11">
-        <v>148</v>
-      </c>
-      <c r="AP34" s="11">
-        <v>273</v>
-      </c>
-      <c r="AQ34" s="11">
-        <v>145</v>
-      </c>
-      <c r="AR34" s="11">
-        <v>194</v>
-      </c>
-      <c r="AS34" s="11">
-        <v>158</v>
-      </c>
-      <c r="AT34" s="11">
-        <v>59</v>
-      </c>
-      <c r="AU34" s="11">
-        <v>25</v>
-      </c>
-      <c r="AV34" s="11">
-        <v>134</v>
-      </c>
-      <c r="AW34" s="11">
-        <v>175</v>
-      </c>
-      <c r="AX34" s="11">
-        <v>191</v>
-      </c>
-      <c r="AY34" s="11">
-        <v>237</v>
-      </c>
-      <c r="AZ34" s="11">
-        <v>262</v>
-      </c>
-      <c r="BA34" s="11">
-        <v>146</v>
-      </c>
       <c r="BB34" s="11">
-        <v>249</v>
+        <v>228</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>61</v>
       </c>
@@ -4597,86 +4597,86 @@
       <c r="AB35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC35" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD35" s="13" t="s">
-        <v>58</v>
+      <c r="AC35" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AD35" s="13">
+        <v>2278</v>
       </c>
       <c r="AE35" s="13">
-        <v>2040</v>
+        <v>2445</v>
       </c>
       <c r="AF35" s="13">
-        <v>2278</v>
+        <v>1265</v>
       </c>
       <c r="AG35" s="13">
-        <v>2445</v>
+        <v>2427</v>
       </c>
       <c r="AH35" s="13">
-        <v>1265</v>
+        <v>3004</v>
       </c>
       <c r="AI35" s="13">
-        <v>2427</v>
+        <v>2650</v>
       </c>
       <c r="AJ35" s="13">
-        <v>3004</v>
+        <v>2410</v>
       </c>
       <c r="AK35" s="13">
-        <v>2650</v>
+        <v>2837</v>
       </c>
       <c r="AL35" s="13">
-        <v>2410</v>
+        <v>2258</v>
       </c>
       <c r="AM35" s="13">
-        <v>2837</v>
+        <v>1874</v>
       </c>
       <c r="AN35" s="13">
-        <v>2258</v>
+        <v>2890</v>
       </c>
       <c r="AO35" s="13">
-        <v>1874</v>
+        <v>1442</v>
       </c>
       <c r="AP35" s="13">
-        <v>2890</v>
+        <v>1090</v>
       </c>
       <c r="AQ35" s="13">
-        <v>1442</v>
+        <v>2302</v>
       </c>
       <c r="AR35" s="13">
-        <v>1090</v>
+        <v>450</v>
       </c>
       <c r="AS35" s="13">
-        <v>2302</v>
+        <v>69</v>
       </c>
       <c r="AT35" s="13">
-        <v>450</v>
+        <v>1431</v>
       </c>
       <c r="AU35" s="13">
-        <v>69</v>
+        <v>2428</v>
       </c>
       <c r="AV35" s="13">
-        <v>1431</v>
+        <v>1041</v>
       </c>
       <c r="AW35" s="13">
-        <v>2428</v>
+        <v>1889</v>
       </c>
       <c r="AX35" s="13">
-        <v>1041</v>
+        <v>3323</v>
       </c>
       <c r="AY35" s="13">
-        <v>1854</v>
+        <v>2105</v>
       </c>
       <c r="AZ35" s="13">
-        <v>3323</v>
+        <v>2341</v>
       </c>
       <c r="BA35" s="13">
-        <v>2105</v>
+        <v>3073</v>
       </c>
       <c r="BB35" s="13">
-        <v>2341</v>
+        <v>3456</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>62</v>
       </c>
@@ -4756,11 +4756,11 @@
       <c r="AB36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC36" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD36" s="11" t="s">
-        <v>58</v>
+      <c r="AC36" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="11">
+        <v>0</v>
       </c>
       <c r="AE36" s="11">
         <v>0</v>
@@ -4790,13 +4790,13 @@
         <v>0</v>
       </c>
       <c r="AN36" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO36" s="11">
         <v>0</v>
       </c>
       <c r="AP36" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ36" s="11">
         <v>0</v>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>71</v>
       </c>
@@ -4914,85 +4914,85 @@
         <v>0</v>
       </c>
       <c r="AC37" s="15">
-        <v>0</v>
+        <v>3988</v>
       </c>
       <c r="AD37" s="15">
-        <v>0</v>
+        <v>4216</v>
       </c>
       <c r="AE37" s="15">
-        <v>3988</v>
+        <v>4658</v>
       </c>
       <c r="AF37" s="15">
-        <v>4216</v>
+        <v>2385</v>
       </c>
       <c r="AG37" s="15">
-        <v>4658</v>
+        <v>4528</v>
       </c>
       <c r="AH37" s="15">
-        <v>2385</v>
+        <v>5529</v>
       </c>
       <c r="AI37" s="15">
-        <v>4528</v>
+        <v>4698</v>
       </c>
       <c r="AJ37" s="15">
-        <v>5529</v>
+        <v>4119</v>
       </c>
       <c r="AK37" s="15">
-        <v>4698</v>
+        <v>5059</v>
       </c>
       <c r="AL37" s="15">
-        <v>4119</v>
+        <v>3867</v>
       </c>
       <c r="AM37" s="15">
-        <v>5059</v>
+        <v>3201</v>
       </c>
       <c r="AN37" s="15">
-        <v>3867</v>
+        <v>4690</v>
       </c>
       <c r="AO37" s="15">
-        <v>3201</v>
+        <v>2668</v>
       </c>
       <c r="AP37" s="15">
-        <v>4690</v>
+        <v>2433</v>
       </c>
       <c r="AQ37" s="15">
-        <v>2668</v>
+        <v>3416</v>
       </c>
       <c r="AR37" s="15">
-        <v>2433</v>
+        <v>1026</v>
       </c>
       <c r="AS37" s="15">
-        <v>3416</v>
+        <v>337</v>
       </c>
       <c r="AT37" s="15">
-        <v>1026</v>
+        <v>2470</v>
       </c>
       <c r="AU37" s="15">
-        <v>337</v>
+        <v>3849</v>
       </c>
       <c r="AV37" s="15">
-        <v>2459</v>
+        <v>2298</v>
       </c>
       <c r="AW37" s="15">
-        <v>3849</v>
+        <v>3093</v>
       </c>
       <c r="AX37" s="15">
-        <v>2298</v>
+        <v>5145</v>
       </c>
       <c r="AY37" s="15">
-        <v>3064</v>
+        <v>3744</v>
       </c>
       <c r="AZ37" s="15">
-        <v>5145</v>
+        <v>4218</v>
       </c>
       <c r="BA37" s="15">
-        <v>3744</v>
+        <v>4558</v>
       </c>
       <c r="BB37" s="15">
-        <v>4219</v>
+        <v>5370</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
         <v>72</v>
       </c>
@@ -5049,7 +5049,7 @@
       <c r="BA38" s="9"/>
       <c r="BB38" s="9"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>56</v>
       </c>
@@ -5132,11 +5132,11 @@
       <c r="AC39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE39" s="11" t="s">
-        <v>58</v>
+      <c r="AD39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="11">
+        <v>0</v>
       </c>
       <c r="AF39" s="11">
         <v>0</v>
@@ -5145,46 +5145,46 @@
         <v>0</v>
       </c>
       <c r="AH39" s="11">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AI39" s="11">
         <v>0</v>
       </c>
-      <c r="AJ39" s="11">
-        <v>37</v>
+      <c r="AJ39" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="11" t="s">
-        <v>58</v>
+        <v>71</v>
+      </c>
+      <c r="AL39" s="11">
+        <v>48</v>
       </c>
       <c r="AM39" s="11">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AN39" s="11">
-        <v>48</v>
+        <v>375</v>
       </c>
       <c r="AO39" s="11">
-        <v>0</v>
+        <v>281</v>
       </c>
       <c r="AP39" s="11">
-        <v>375</v>
+        <v>468</v>
       </c>
       <c r="AQ39" s="11">
-        <v>281</v>
+        <v>468</v>
       </c>
       <c r="AR39" s="11">
-        <v>468</v>
+        <v>70</v>
       </c>
       <c r="AS39" s="11">
-        <v>468</v>
+        <v>103</v>
       </c>
       <c r="AT39" s="11">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AU39" s="11">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="AV39" s="11">
         <v>0</v>
@@ -5193,22 +5193,22 @@
         <v>0</v>
       </c>
       <c r="AX39" s="11">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AY39" s="11">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AZ39" s="11">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="BA39" s="11">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BB39" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>59</v>
       </c>
@@ -5321,26 +5321,26 @@
       <c r="AM40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN40" s="13" t="s">
-        <v>58</v>
+      <c r="AN40" s="13">
+        <v>10</v>
       </c>
       <c r="AO40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP40" s="13">
-        <v>10</v>
+      <c r="AP40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT40" s="13">
-        <v>0</v>
+      <c r="AR40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU40" s="13" t="s">
         <v>58</v>
@@ -5357,17 +5357,17 @@
       <c r="AY40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ40" s="13" t="s">
-        <v>58</v>
+      <c r="AZ40" s="13">
+        <v>0</v>
       </c>
       <c r="BA40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BB40" s="13">
-        <v>0</v>
+      <c r="BB40" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>60</v>
       </c>
@@ -5450,71 +5450,71 @@
       <c r="AC41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE41" s="11" t="s">
-        <v>58</v>
+      <c r="AD41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="11">
+        <v>46</v>
       </c>
       <c r="AF41" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG41" s="11">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="AH41" s="11">
+        <v>10</v>
+      </c>
+      <c r="AI41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL41" s="11">
+        <v>17</v>
+      </c>
+      <c r="AM41" s="11">
         <v>4</v>
       </c>
-      <c r="AI41" s="11">
-        <v>4</v>
-      </c>
-      <c r="AJ41" s="11">
-        <v>10</v>
-      </c>
-      <c r="AK41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AL41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM41" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="AN41" s="11">
+        <v>51</v>
+      </c>
+      <c r="AO41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="11">
         <v>17</v>
       </c>
-      <c r="AO41" s="11">
-        <v>4</v>
-      </c>
-      <c r="AP41" s="11">
-        <v>51</v>
-      </c>
-      <c r="AQ41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT41" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV41" s="11">
-        <v>0</v>
-      </c>
       <c r="AW41" s="11">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AX41" s="11">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AY41" s="11">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AZ41" s="11">
         <v>6</v>
@@ -5523,10 +5523,10 @@
         <v>0</v>
       </c>
       <c r="BB41" s="11">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>61</v>
       </c>
@@ -5606,86 +5606,86 @@
       <c r="AB42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC42" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD42" s="13" t="s">
-        <v>58</v>
+      <c r="AC42" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="13">
+        <v>157</v>
       </c>
       <c r="AE42" s="13">
         <v>0</v>
       </c>
       <c r="AF42" s="13">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="13">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="AH42" s="13">
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="AI42" s="13">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="AJ42" s="13">
-        <v>248</v>
+        <v>431</v>
       </c>
       <c r="AK42" s="13">
-        <v>0</v>
+        <v>587</v>
       </c>
       <c r="AL42" s="13">
-        <v>431</v>
+        <v>45</v>
       </c>
       <c r="AM42" s="13">
-        <v>587</v>
+        <v>22</v>
       </c>
       <c r="AN42" s="13">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="AO42" s="13">
-        <v>22</v>
+        <v>274</v>
       </c>
       <c r="AP42" s="13">
-        <v>22</v>
+        <v>301</v>
       </c>
       <c r="AQ42" s="13">
-        <v>274</v>
+        <v>43</v>
       </c>
       <c r="AR42" s="13">
-        <v>301</v>
+        <v>229</v>
       </c>
       <c r="AS42" s="13">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="AT42" s="13">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="AU42" s="13">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="AV42" s="13">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="AW42" s="13">
-        <v>181</v>
+        <v>252</v>
       </c>
       <c r="AX42" s="13">
-        <v>361</v>
+        <v>47</v>
       </c>
       <c r="AY42" s="13">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="AZ42" s="13">
-        <v>47</v>
+        <v>662</v>
       </c>
       <c r="BA42" s="13">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="BB42" s="13">
-        <v>662</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
         <v>73</v>
       </c>
@@ -5767,82 +5767,82 @@
         <v>0</v>
       </c>
       <c r="AD43" s="17">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="AE43" s="17">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AF43" s="17">
-        <v>157</v>
+        <v>4</v>
       </c>
       <c r="AG43" s="17">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="AH43" s="17">
-        <v>4</v>
+        <v>296</v>
       </c>
       <c r="AI43" s="17">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ43" s="17">
-        <v>296</v>
+        <v>431</v>
       </c>
       <c r="AK43" s="17">
-        <v>0</v>
+        <v>658</v>
       </c>
       <c r="AL43" s="17">
-        <v>431</v>
+        <v>110</v>
       </c>
       <c r="AM43" s="17">
-        <v>658</v>
+        <v>26</v>
       </c>
       <c r="AN43" s="17">
-        <v>110</v>
+        <v>458</v>
       </c>
       <c r="AO43" s="17">
-        <v>26</v>
+        <v>555</v>
       </c>
       <c r="AP43" s="17">
-        <v>458</v>
+        <v>769</v>
       </c>
       <c r="AQ43" s="17">
-        <v>555</v>
+        <v>511</v>
       </c>
       <c r="AR43" s="17">
-        <v>769</v>
+        <v>299</v>
       </c>
       <c r="AS43" s="17">
-        <v>511</v>
+        <v>171</v>
       </c>
       <c r="AT43" s="17">
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="AU43" s="17">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="AV43" s="17">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="AW43" s="17">
-        <v>181</v>
+        <v>283</v>
       </c>
       <c r="AX43" s="17">
-        <v>379</v>
+        <v>113</v>
       </c>
       <c r="AY43" s="17">
-        <v>282</v>
+        <v>182</v>
       </c>
       <c r="AZ43" s="17">
-        <v>113</v>
+        <v>668</v>
       </c>
       <c r="BA43" s="17">
-        <v>182</v>
+        <v>23</v>
       </c>
       <c r="BB43" s="17">
-        <v>668</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
         <v>66</v>
       </c>
@@ -5899,7 +5899,7 @@
       <c r="BA44" s="19"/>
       <c r="BB44" s="19"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>67</v>
       </c>
@@ -5977,11 +5977,11 @@
       <c r="AB45" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AC45" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD45" s="17" t="s">
-        <v>58</v>
+      <c r="AC45" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="17">
+        <v>0</v>
       </c>
       <c r="AE45" s="17">
         <v>0</v>
@@ -6056,7 +6056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>74</v>
       </c>
@@ -6113,7 +6113,7 @@
       <c r="BA46" s="9"/>
       <c r="BB46" s="9"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>75</v>
       </c>
@@ -6247,20 +6247,20 @@
       <c r="AT47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU47" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV47" s="11">
-        <v>0</v>
+      <c r="AU47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV47" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX47" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY47" s="11">
-        <v>0</v>
+      <c r="AX47" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY47" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AZ47" s="11" t="s">
         <v>58</v>
@@ -6272,7 +6272,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
         <v>76</v>
       </c>
@@ -6350,11 +6350,11 @@
       <c r="AB48" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AC48" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD48" s="15" t="s">
-        <v>58</v>
+      <c r="AC48" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="15">
+        <v>0</v>
       </c>
       <c r="AE48" s="15">
         <v>0</v>
@@ -6429,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="16" t="s">
         <v>68</v>
       </c>
@@ -6508,85 +6508,85 @@
         <v>0</v>
       </c>
       <c r="AC49" s="17">
-        <v>0</v>
+        <v>3988</v>
       </c>
       <c r="AD49" s="17">
-        <v>0</v>
+        <v>4373</v>
       </c>
       <c r="AE49" s="17">
-        <v>3988</v>
+        <v>4704</v>
       </c>
       <c r="AF49" s="17">
-        <v>4373</v>
+        <v>2389</v>
       </c>
       <c r="AG49" s="17">
-        <v>4704</v>
+        <v>4668</v>
       </c>
       <c r="AH49" s="17">
-        <v>2389</v>
+        <v>5824</v>
       </c>
       <c r="AI49" s="17">
-        <v>4668</v>
+        <v>4698</v>
       </c>
       <c r="AJ49" s="17">
-        <v>5824</v>
+        <v>4550</v>
       </c>
       <c r="AK49" s="17">
-        <v>4698</v>
+        <v>5717</v>
       </c>
       <c r="AL49" s="17">
-        <v>4550</v>
+        <v>3977</v>
       </c>
       <c r="AM49" s="17">
-        <v>5717</v>
+        <v>3227</v>
       </c>
       <c r="AN49" s="17">
-        <v>3977</v>
+        <v>5148</v>
       </c>
       <c r="AO49" s="17">
-        <v>3227</v>
+        <v>3223</v>
       </c>
       <c r="AP49" s="17">
-        <v>5148</v>
+        <v>3202</v>
       </c>
       <c r="AQ49" s="17">
-        <v>3223</v>
+        <v>3927</v>
       </c>
       <c r="AR49" s="17">
-        <v>3202</v>
+        <v>1325</v>
       </c>
       <c r="AS49" s="17">
-        <v>3927</v>
+        <v>508</v>
       </c>
       <c r="AT49" s="17">
-        <v>1325</v>
+        <v>2470</v>
       </c>
       <c r="AU49" s="17">
-        <v>522</v>
+        <v>4030</v>
       </c>
       <c r="AV49" s="17">
-        <v>2459</v>
+        <v>2677</v>
       </c>
       <c r="AW49" s="17">
-        <v>4030</v>
+        <v>3376</v>
       </c>
       <c r="AX49" s="17">
-        <v>2677</v>
+        <v>5258</v>
       </c>
       <c r="AY49" s="17">
-        <v>3346</v>
+        <v>3926</v>
       </c>
       <c r="AZ49" s="17">
-        <v>5258</v>
+        <v>4887</v>
       </c>
       <c r="BA49" s="17">
-        <v>3926</v>
+        <v>4581</v>
       </c>
       <c r="BB49" s="17">
-        <v>4887</v>
+        <v>5447</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6641,7 +6641,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6696,7 +6696,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -6751,7 +6751,7 @@
       <c r="BA52" s="1"/>
       <c r="BB52" s="1"/>
     </row>
-    <row r="53" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
         <v>77</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -6963,7 +6963,7 @@
       <c r="BA54" s="1"/>
       <c r="BB54" s="1"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>78</v>
       </c>
@@ -7020,7 +7020,7 @@
       <c r="BA55" s="9"/>
       <c r="BB55" s="9"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>56</v>
       </c>
@@ -7100,86 +7100,86 @@
       <c r="AB56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC56" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD56" s="11" t="s">
-        <v>58</v>
+      <c r="AC56" s="11">
+        <v>202287</v>
+      </c>
+      <c r="AD56" s="11">
+        <v>221074</v>
       </c>
       <c r="AE56" s="11">
-        <v>202287</v>
+        <v>219450</v>
       </c>
       <c r="AF56" s="11">
-        <v>221074</v>
+        <v>115588</v>
       </c>
       <c r="AG56" s="11">
-        <v>219450</v>
+        <v>231562</v>
       </c>
       <c r="AH56" s="11">
-        <v>115588</v>
+        <v>383083</v>
       </c>
       <c r="AI56" s="11">
-        <v>231562</v>
+        <v>310888</v>
       </c>
       <c r="AJ56" s="11">
-        <v>383083</v>
+        <v>231953</v>
       </c>
       <c r="AK56" s="11">
-        <v>310888</v>
+        <v>319599</v>
       </c>
       <c r="AL56" s="11">
-        <v>231953</v>
+        <v>193238</v>
       </c>
       <c r="AM56" s="11">
-        <v>319599</v>
+        <v>181310</v>
       </c>
       <c r="AN56" s="11">
-        <v>193238</v>
+        <v>186218</v>
       </c>
       <c r="AO56" s="11">
-        <v>181310</v>
+        <v>113047</v>
       </c>
       <c r="AP56" s="11">
-        <v>186218</v>
+        <v>153535</v>
       </c>
       <c r="AQ56" s="11">
-        <v>113047</v>
+        <v>102726</v>
       </c>
       <c r="AR56" s="11">
-        <v>153535</v>
+        <v>87461</v>
       </c>
       <c r="AS56" s="11">
-        <v>102726</v>
+        <v>33511</v>
       </c>
       <c r="AT56" s="11">
-        <v>87461</v>
+        <v>163230</v>
       </c>
       <c r="AU56" s="11">
-        <v>33511</v>
+        <v>300371</v>
       </c>
       <c r="AV56" s="11">
-        <v>163230</v>
+        <v>274099</v>
       </c>
       <c r="AW56" s="11">
-        <v>300371</v>
+        <v>259001</v>
       </c>
       <c r="AX56" s="11">
-        <v>274099</v>
+        <v>450322</v>
       </c>
       <c r="AY56" s="11">
-        <v>257735</v>
+        <v>502078</v>
       </c>
       <c r="AZ56" s="11">
-        <v>450322</v>
+        <v>459676</v>
       </c>
       <c r="BA56" s="11">
-        <v>502078</v>
+        <v>330642</v>
       </c>
       <c r="BB56" s="11">
-        <v>454589</v>
+        <v>496217</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>59</v>
       </c>
@@ -7259,86 +7259,86 @@
       <c r="AB57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC57" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD57" s="13" t="s">
-        <v>58</v>
+      <c r="AC57" s="13">
+        <v>108525</v>
+      </c>
+      <c r="AD57" s="13">
+        <v>121344</v>
       </c>
       <c r="AE57" s="13">
-        <v>108525</v>
+        <v>122024</v>
       </c>
       <c r="AF57" s="13">
-        <v>121344</v>
+        <v>54611</v>
       </c>
       <c r="AG57" s="13">
-        <v>122024</v>
+        <v>98510</v>
       </c>
       <c r="AH57" s="13">
-        <v>54611</v>
+        <v>116879</v>
       </c>
       <c r="AI57" s="13">
-        <v>98510</v>
+        <v>93879</v>
       </c>
       <c r="AJ57" s="13">
-        <v>116879</v>
+        <v>109005</v>
       </c>
       <c r="AK57" s="13">
-        <v>93879</v>
+        <v>141033</v>
       </c>
       <c r="AL57" s="13">
-        <v>109005</v>
+        <v>100553</v>
       </c>
       <c r="AM57" s="13">
-        <v>141033</v>
+        <v>89876</v>
       </c>
       <c r="AN57" s="13">
-        <v>100553</v>
+        <v>93265</v>
       </c>
       <c r="AO57" s="13">
-        <v>89876</v>
+        <v>99797</v>
       </c>
       <c r="AP57" s="13">
-        <v>93265</v>
+        <v>86638</v>
       </c>
       <c r="AQ57" s="13">
-        <v>99797</v>
+        <v>91716</v>
       </c>
       <c r="AR57" s="13">
-        <v>86638</v>
+        <v>41055</v>
       </c>
       <c r="AS57" s="13">
-        <v>91716</v>
+        <v>12675</v>
       </c>
       <c r="AT57" s="13">
-        <v>41055</v>
+        <v>97668</v>
       </c>
       <c r="AU57" s="13">
-        <v>12675</v>
+        <v>95401</v>
       </c>
       <c r="AV57" s="13">
-        <v>97668</v>
+        <v>86746</v>
       </c>
       <c r="AW57" s="13">
-        <v>95401</v>
+        <v>82999</v>
       </c>
       <c r="AX57" s="13">
-        <v>86746</v>
+        <v>104444</v>
       </c>
       <c r="AY57" s="13">
-        <v>81885</v>
+        <v>104980</v>
       </c>
       <c r="AZ57" s="13">
-        <v>104444</v>
+        <v>142386</v>
       </c>
       <c r="BA57" s="13">
-        <v>104980</v>
+        <v>103586</v>
       </c>
       <c r="BB57" s="13">
-        <v>139224</v>
+        <v>129727</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>60</v>
       </c>
@@ -7418,86 +7418,86 @@
       <c r="AB58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC58" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD58" s="11" t="s">
-        <v>58</v>
+      <c r="AC58" s="11">
+        <v>113979</v>
+      </c>
+      <c r="AD58" s="11">
+        <v>143885</v>
       </c>
       <c r="AE58" s="11">
-        <v>113979</v>
+        <v>162959</v>
       </c>
       <c r="AF58" s="11">
-        <v>143885</v>
+        <v>65809</v>
       </c>
       <c r="AG58" s="11">
-        <v>162959</v>
+        <v>178265</v>
       </c>
       <c r="AH58" s="11">
-        <v>65809</v>
+        <v>231354</v>
       </c>
       <c r="AI58" s="11">
-        <v>178265</v>
+        <v>183475</v>
       </c>
       <c r="AJ58" s="11">
-        <v>231354</v>
+        <v>200590</v>
       </c>
       <c r="AK58" s="11">
-        <v>183475</v>
+        <v>209870</v>
       </c>
       <c r="AL58" s="11">
-        <v>200590</v>
+        <v>183207</v>
       </c>
       <c r="AM58" s="11">
-        <v>209870</v>
+        <v>122291</v>
       </c>
       <c r="AN58" s="11">
-        <v>183207</v>
+        <v>187905</v>
       </c>
       <c r="AO58" s="11">
-        <v>122291</v>
+        <v>104044</v>
       </c>
       <c r="AP58" s="11">
-        <v>187905</v>
+        <v>134693</v>
       </c>
       <c r="AQ58" s="11">
-        <v>104044</v>
+        <v>96098</v>
       </c>
       <c r="AR58" s="11">
-        <v>134693</v>
+        <v>42711</v>
       </c>
       <c r="AS58" s="11">
-        <v>96098</v>
+        <v>10917</v>
       </c>
       <c r="AT58" s="11">
-        <v>42711</v>
+        <v>127863</v>
       </c>
       <c r="AU58" s="11">
-        <v>10917</v>
+        <v>165053</v>
       </c>
       <c r="AV58" s="11">
-        <v>127863</v>
+        <v>179156</v>
       </c>
       <c r="AW58" s="11">
-        <v>165053</v>
+        <v>247463</v>
       </c>
       <c r="AX58" s="11">
-        <v>179156</v>
+        <v>245114</v>
       </c>
       <c r="AY58" s="11">
-        <v>244242</v>
+        <v>148158</v>
       </c>
       <c r="AZ58" s="11">
-        <v>245114</v>
+        <v>242430</v>
       </c>
       <c r="BA58" s="11">
-        <v>148158</v>
+        <v>228066</v>
       </c>
       <c r="BB58" s="11">
-        <v>226968</v>
+        <v>215493</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>61</v>
       </c>
@@ -7577,86 +7577,86 @@
       <c r="AB59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC59" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD59" s="13" t="s">
-        <v>58</v>
+      <c r="AC59" s="13">
+        <v>295610</v>
+      </c>
+      <c r="AD59" s="13">
+        <v>366734</v>
       </c>
       <c r="AE59" s="13">
-        <v>295610</v>
+        <v>364215</v>
       </c>
       <c r="AF59" s="13">
-        <v>366734</v>
+        <v>183295</v>
       </c>
       <c r="AG59" s="13">
-        <v>364215</v>
+        <v>358164</v>
       </c>
       <c r="AH59" s="13">
-        <v>183295</v>
+        <v>507180</v>
       </c>
       <c r="AI59" s="13">
-        <v>358164</v>
+        <v>438333</v>
       </c>
       <c r="AJ59" s="13">
-        <v>507180</v>
+        <v>471003</v>
       </c>
       <c r="AK59" s="13">
-        <v>438333</v>
+        <v>504929</v>
       </c>
       <c r="AL59" s="13">
-        <v>471003</v>
+        <v>407749</v>
       </c>
       <c r="AM59" s="13">
-        <v>504929</v>
+        <v>358218</v>
       </c>
       <c r="AN59" s="13">
-        <v>407749</v>
+        <v>480151</v>
       </c>
       <c r="AO59" s="13">
-        <v>358218</v>
+        <v>252474</v>
       </c>
       <c r="AP59" s="13">
-        <v>480151</v>
+        <v>177860</v>
       </c>
       <c r="AQ59" s="13">
-        <v>252474</v>
+        <v>436136</v>
       </c>
       <c r="AR59" s="13">
-        <v>177860</v>
+        <v>85533</v>
       </c>
       <c r="AS59" s="13">
-        <v>436136</v>
+        <v>9391</v>
       </c>
       <c r="AT59" s="13">
-        <v>85533</v>
+        <v>336012</v>
       </c>
       <c r="AU59" s="13">
-        <v>9391</v>
+        <v>585025</v>
       </c>
       <c r="AV59" s="13">
-        <v>336012</v>
+        <v>255269</v>
       </c>
       <c r="AW59" s="13">
-        <v>585025</v>
+        <v>458700</v>
       </c>
       <c r="AX59" s="13">
-        <v>255269</v>
+        <v>799695</v>
       </c>
       <c r="AY59" s="13">
-        <v>450090</v>
+        <v>513161</v>
       </c>
       <c r="AZ59" s="13">
-        <v>799695</v>
+        <v>615099</v>
       </c>
       <c r="BA59" s="13">
-        <v>513161</v>
+        <v>737579</v>
       </c>
       <c r="BB59" s="13">
-        <v>549187</v>
+        <v>828640</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>62</v>
       </c>
@@ -7736,86 +7736,86 @@
       <c r="AB60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC60" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD60" s="11" t="s">
-        <v>58</v>
+      <c r="AC60" s="11">
+        <v>18</v>
+      </c>
+      <c r="AD60" s="11">
+        <v>55</v>
       </c>
       <c r="AE60" s="11">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AF60" s="11">
-        <v>55</v>
+        <v>566</v>
       </c>
       <c r="AG60" s="11">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="AH60" s="11">
-        <v>566</v>
+        <v>17</v>
       </c>
       <c r="AI60" s="11">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="AJ60" s="11">
-        <v>17</v>
+        <v>307</v>
       </c>
       <c r="AK60" s="11">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL60" s="11">
-        <v>307</v>
+        <v>15</v>
       </c>
       <c r="AM60" s="11">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="AN60" s="11">
-        <v>15</v>
+        <v>2474</v>
       </c>
       <c r="AO60" s="11">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="AP60" s="11">
-        <v>2474</v>
+        <v>26</v>
       </c>
       <c r="AQ60" s="11">
-        <v>53</v>
+        <v>79</v>
       </c>
       <c r="AR60" s="11">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AS60" s="11">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="AT60" s="11">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="AU60" s="11">
-        <v>10</v>
+        <v>619</v>
       </c>
       <c r="AV60" s="11">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="AW60" s="11">
-        <v>619</v>
+        <v>21</v>
       </c>
       <c r="AX60" s="11">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="AY60" s="11">
-        <v>27</v>
+        <v>200</v>
       </c>
       <c r="AZ60" s="11">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="BA60" s="11">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="BB60" s="11">
-        <v>142</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
         <v>71</v>
       </c>
@@ -7894,85 +7894,85 @@
         <v>0</v>
       </c>
       <c r="AC61" s="15">
-        <v>0</v>
+        <v>720419</v>
       </c>
       <c r="AD61" s="15">
-        <v>0</v>
+        <v>853092</v>
       </c>
       <c r="AE61" s="15">
-        <v>720419</v>
+        <v>868684</v>
       </c>
       <c r="AF61" s="15">
-        <v>853092</v>
+        <v>419869</v>
       </c>
       <c r="AG61" s="15">
-        <v>868684</v>
+        <v>866559</v>
       </c>
       <c r="AH61" s="15">
-        <v>419869</v>
+        <v>1238513</v>
       </c>
       <c r="AI61" s="15">
-        <v>866559</v>
+        <v>1026599</v>
       </c>
       <c r="AJ61" s="15">
-        <v>1238513</v>
+        <v>1012858</v>
       </c>
       <c r="AK61" s="15">
-        <v>1026599</v>
+        <v>1175454</v>
       </c>
       <c r="AL61" s="15">
-        <v>1012858</v>
+        <v>884762</v>
       </c>
       <c r="AM61" s="15">
-        <v>1175454</v>
+        <v>751814</v>
       </c>
       <c r="AN61" s="15">
-        <v>884762</v>
+        <v>950013</v>
       </c>
       <c r="AO61" s="15">
-        <v>751814</v>
+        <v>569415</v>
       </c>
       <c r="AP61" s="15">
-        <v>950013</v>
+        <v>552752</v>
       </c>
       <c r="AQ61" s="15">
-        <v>569415</v>
+        <v>726755</v>
       </c>
       <c r="AR61" s="15">
-        <v>552752</v>
+        <v>256779</v>
       </c>
       <c r="AS61" s="15">
-        <v>726755</v>
+        <v>66504</v>
       </c>
       <c r="AT61" s="15">
-        <v>256779</v>
+        <v>724824</v>
       </c>
       <c r="AU61" s="15">
-        <v>66504</v>
+        <v>1146469</v>
       </c>
       <c r="AV61" s="15">
-        <v>724824</v>
+        <v>795417</v>
       </c>
       <c r="AW61" s="15">
-        <v>1146469</v>
+        <v>1048184</v>
       </c>
       <c r="AX61" s="15">
-        <v>795417</v>
+        <v>1599610</v>
       </c>
       <c r="AY61" s="15">
-        <v>1033979</v>
+        <v>1268577</v>
       </c>
       <c r="AZ61" s="15">
-        <v>1599610</v>
+        <v>1459698</v>
       </c>
       <c r="BA61" s="15">
-        <v>1268577</v>
+        <v>1399903</v>
       </c>
       <c r="BB61" s="15">
-        <v>1370110</v>
+        <v>1670129</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>80</v>
       </c>
@@ -8029,7 +8029,7 @@
       <c r="BA62" s="9"/>
       <c r="BB62" s="9"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>56</v>
       </c>
@@ -8112,11 +8112,11 @@
       <c r="AC63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE63" s="11" t="s">
-        <v>58</v>
+      <c r="AD63" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="11">
+        <v>0</v>
       </c>
       <c r="AF63" s="11">
         <v>0</v>
@@ -8125,70 +8125,70 @@
         <v>0</v>
       </c>
       <c r="AH63" s="11">
-        <v>0</v>
+        <v>12619</v>
       </c>
       <c r="AI63" s="11">
         <v>0</v>
       </c>
       <c r="AJ63" s="11">
-        <v>12619</v>
+        <v>0</v>
       </c>
       <c r="AK63" s="11">
-        <v>0</v>
+        <v>21475</v>
       </c>
       <c r="AL63" s="11">
-        <v>0</v>
+        <v>14502</v>
       </c>
       <c r="AM63" s="11">
-        <v>21475</v>
+        <v>0</v>
       </c>
       <c r="AN63" s="11">
-        <v>14502</v>
+        <v>106938</v>
       </c>
       <c r="AO63" s="11">
-        <v>0</v>
+        <v>78329</v>
       </c>
       <c r="AP63" s="11">
-        <v>106938</v>
+        <v>145249</v>
       </c>
       <c r="AQ63" s="11">
-        <v>78329</v>
+        <v>161730</v>
       </c>
       <c r="AR63" s="11">
-        <v>145249</v>
+        <v>23003</v>
       </c>
       <c r="AS63" s="11">
-        <v>161730</v>
+        <v>47508</v>
       </c>
       <c r="AT63" s="11">
-        <v>23003</v>
+        <v>0</v>
       </c>
       <c r="AU63" s="11">
-        <v>45208</v>
+        <v>0</v>
       </c>
       <c r="AV63" s="11">
-        <v>-480</v>
+        <v>0</v>
       </c>
       <c r="AW63" s="11">
         <v>0</v>
       </c>
       <c r="AX63" s="11">
-        <v>0</v>
+        <v>24796</v>
       </c>
       <c r="AY63" s="11">
-        <v>0</v>
+        <v>13210</v>
       </c>
       <c r="AZ63" s="11">
-        <v>24796</v>
+        <v>0</v>
       </c>
       <c r="BA63" s="11">
-        <v>13210</v>
+        <v>0</v>
       </c>
       <c r="BB63" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>59</v>
       </c>
@@ -8301,26 +8301,26 @@
       <c r="AM64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN64" s="13" t="s">
-        <v>58</v>
+      <c r="AN64" s="13">
+        <v>2374</v>
       </c>
       <c r="AO64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP64" s="13">
-        <v>2374</v>
+      <c r="AP64" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT64" s="13">
-        <v>0</v>
+      <c r="AR64" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS64" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT64" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU64" s="13" t="s">
         <v>58</v>
@@ -8337,17 +8337,17 @@
       <c r="AY64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ64" s="13" t="s">
-        <v>58</v>
+      <c r="AZ64" s="13">
+        <v>0</v>
       </c>
       <c r="BA64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BB64" s="13">
-        <v>0</v>
+      <c r="BB64" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>60</v>
       </c>
@@ -8430,83 +8430,83 @@
       <c r="AC65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE65" s="11" t="s">
-        <v>58</v>
+      <c r="AD65" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="11">
+        <v>23584</v>
       </c>
       <c r="AF65" s="11">
-        <v>0</v>
+        <v>2018</v>
       </c>
       <c r="AG65" s="11">
-        <v>23584</v>
+        <v>1906</v>
       </c>
       <c r="AH65" s="11">
-        <v>2018</v>
+        <v>5762</v>
       </c>
       <c r="AI65" s="11">
-        <v>1906</v>
+        <v>0</v>
       </c>
       <c r="AJ65" s="11">
-        <v>5762</v>
+        <v>0</v>
       </c>
       <c r="AK65" s="11">
         <v>0</v>
       </c>
       <c r="AL65" s="11">
-        <v>0</v>
+        <v>10698</v>
       </c>
       <c r="AM65" s="11">
-        <v>0</v>
+        <v>2445</v>
       </c>
       <c r="AN65" s="11">
-        <v>10698</v>
-      </c>
-      <c r="AO65" s="11">
-        <v>2445</v>
+        <v>30684</v>
+      </c>
+      <c r="AO65" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP65" s="11">
-        <v>30684</v>
-      </c>
-      <c r="AQ65" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR65" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS65" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT65" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AQ65" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR65" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS65" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT65" s="11">
+        <v>0</v>
       </c>
       <c r="AU65" s="11">
         <v>0</v>
       </c>
       <c r="AV65" s="11">
-        <v>0</v>
+        <v>13693</v>
       </c>
       <c r="AW65" s="11">
-        <v>0</v>
+        <v>21546</v>
       </c>
       <c r="AX65" s="11">
-        <v>13693</v>
+        <v>4608</v>
       </c>
       <c r="AY65" s="11">
-        <v>21546</v>
+        <v>0</v>
       </c>
       <c r="AZ65" s="11">
-        <v>4608</v>
+        <v>4301</v>
       </c>
       <c r="BA65" s="11">
         <v>0</v>
       </c>
       <c r="BB65" s="11">
-        <v>4301</v>
+        <v>24166</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
         <v>61</v>
       </c>
@@ -8586,86 +8586,86 @@
       <c r="AB66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD66" s="13" t="s">
-        <v>58</v>
+      <c r="AC66" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="13">
+        <v>22903</v>
       </c>
       <c r="AE66" s="13">
         <v>0</v>
       </c>
       <c r="AF66" s="13">
-        <v>22903</v>
+        <v>0</v>
       </c>
       <c r="AG66" s="13">
-        <v>0</v>
+        <v>18762</v>
       </c>
       <c r="AH66" s="13">
-        <v>0</v>
+        <v>37067</v>
       </c>
       <c r="AI66" s="13">
-        <v>18762</v>
+        <v>0</v>
       </c>
       <c r="AJ66" s="13">
-        <v>37067</v>
+        <v>79644</v>
       </c>
       <c r="AK66" s="13">
-        <v>0</v>
+        <v>100754</v>
       </c>
       <c r="AL66" s="13">
-        <v>79644</v>
+        <v>7268</v>
       </c>
       <c r="AM66" s="13">
-        <v>100754</v>
+        <v>4425</v>
       </c>
       <c r="AN66" s="13">
-        <v>7268</v>
+        <v>3615</v>
       </c>
       <c r="AO66" s="13">
-        <v>4425</v>
+        <v>38650</v>
       </c>
       <c r="AP66" s="13">
-        <v>3615</v>
+        <v>39518</v>
       </c>
       <c r="AQ66" s="13">
-        <v>38650</v>
+        <v>6981</v>
       </c>
       <c r="AR66" s="13">
-        <v>39518</v>
+        <v>37268</v>
       </c>
       <c r="AS66" s="13">
-        <v>6981</v>
+        <v>10384</v>
       </c>
       <c r="AT66" s="13">
-        <v>37268</v>
+        <v>0</v>
       </c>
       <c r="AU66" s="13">
-        <v>12729</v>
+        <v>43963</v>
       </c>
       <c r="AV66" s="13">
-        <v>0</v>
+        <v>89324</v>
       </c>
       <c r="AW66" s="13">
-        <v>43963</v>
+        <v>60796</v>
       </c>
       <c r="AX66" s="13">
-        <v>89324</v>
+        <v>10730</v>
       </c>
       <c r="AY66" s="13">
-        <v>60796</v>
+        <v>37554</v>
       </c>
       <c r="AZ66" s="13">
-        <v>10730</v>
+        <v>120732</v>
       </c>
       <c r="BA66" s="13">
-        <v>37554</v>
+        <v>4302</v>
       </c>
       <c r="BB66" s="13">
-        <v>120731</v>
+        <v>10060</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="16" t="s">
         <v>73</v>
       </c>
@@ -8747,82 +8747,82 @@
         <v>0</v>
       </c>
       <c r="AD67" s="17">
-        <v>0</v>
+        <v>22903</v>
       </c>
       <c r="AE67" s="17">
-        <v>0</v>
+        <v>23584</v>
       </c>
       <c r="AF67" s="17">
-        <v>22903</v>
+        <v>2018</v>
       </c>
       <c r="AG67" s="17">
-        <v>23584</v>
+        <v>20668</v>
       </c>
       <c r="AH67" s="17">
-        <v>2018</v>
+        <v>55448</v>
       </c>
       <c r="AI67" s="17">
-        <v>20668</v>
+        <v>0</v>
       </c>
       <c r="AJ67" s="17">
-        <v>55448</v>
+        <v>79644</v>
       </c>
       <c r="AK67" s="17">
-        <v>0</v>
+        <v>122229</v>
       </c>
       <c r="AL67" s="17">
-        <v>79644</v>
+        <v>32468</v>
       </c>
       <c r="AM67" s="17">
-        <v>122229</v>
+        <v>6870</v>
       </c>
       <c r="AN67" s="17">
-        <v>32468</v>
+        <v>143611</v>
       </c>
       <c r="AO67" s="17">
-        <v>6870</v>
+        <v>116979</v>
       </c>
       <c r="AP67" s="17">
-        <v>143611</v>
+        <v>184767</v>
       </c>
       <c r="AQ67" s="17">
-        <v>116979</v>
+        <v>168711</v>
       </c>
       <c r="AR67" s="17">
-        <v>184767</v>
+        <v>60271</v>
       </c>
       <c r="AS67" s="17">
-        <v>168711</v>
+        <v>57892</v>
       </c>
       <c r="AT67" s="17">
-        <v>60271</v>
+        <v>0</v>
       </c>
       <c r="AU67" s="17">
-        <v>57937</v>
+        <v>43963</v>
       </c>
       <c r="AV67" s="17">
-        <v>-480</v>
+        <v>103017</v>
       </c>
       <c r="AW67" s="17">
-        <v>43963</v>
+        <v>82342</v>
       </c>
       <c r="AX67" s="17">
-        <v>103017</v>
+        <v>40134</v>
       </c>
       <c r="AY67" s="17">
-        <v>82342</v>
+        <v>50764</v>
       </c>
       <c r="AZ67" s="17">
-        <v>40134</v>
+        <v>125033</v>
       </c>
       <c r="BA67" s="17">
-        <v>50764</v>
+        <v>4302</v>
       </c>
       <c r="BB67" s="17">
-        <v>125032</v>
+        <v>34226</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="18" t="s">
         <v>81</v>
       </c>
@@ -8879,7 +8879,7 @@
       <c r="BA68" s="19"/>
       <c r="BB68" s="19"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="16" t="s">
         <v>67</v>
       </c>
@@ -8959,11 +8959,11 @@
       <c r="AB69" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="AC69" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD69" s="17" t="s">
-        <v>58</v>
+      <c r="AC69" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="17">
+        <v>0</v>
       </c>
       <c r="AE69" s="17">
         <v>0</v>
@@ -9038,7 +9038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
         <v>75</v>
       </c>
@@ -9095,7 +9095,7 @@
       <c r="BA70" s="9"/>
       <c r="BB70" s="9"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
         <v>75</v>
       </c>
@@ -9217,11 +9217,11 @@
       <c r="AP71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR71" s="11" t="s">
-        <v>58</v>
+      <c r="AQ71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR71" s="11">
+        <v>0</v>
       </c>
       <c r="AS71" s="11">
         <v>0</v>
@@ -9247,14 +9247,14 @@
       <c r="AZ71" s="11">
         <v>0</v>
       </c>
-      <c r="BA71" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB71" s="11">
-        <v>0</v>
+      <c r="BA71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB71" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="14" t="s">
         <v>76</v>
       </c>
@@ -9334,11 +9334,11 @@
       <c r="AB72" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="AC72" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD72" s="15" t="s">
-        <v>58</v>
+      <c r="AC72" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="15">
+        <v>0</v>
       </c>
       <c r="AE72" s="15">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
         <v>82</v>
       </c>
@@ -9470,7 +9470,7 @@
       <c r="BA73" s="9"/>
       <c r="BB73" s="9"/>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>83</v>
       </c>
@@ -9550,11 +9550,11 @@
       <c r="AB74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD74" s="11" t="s">
-        <v>58</v>
+      <c r="AC74" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="11">
+        <v>0</v>
       </c>
       <c r="AE74" s="11">
         <v>0</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="14" t="s">
         <v>68</v>
       </c>
@@ -9708,85 +9708,85 @@
         <v>0</v>
       </c>
       <c r="AC75" s="15">
-        <v>0</v>
+        <v>720419</v>
       </c>
       <c r="AD75" s="15">
-        <v>0</v>
+        <v>875995</v>
       </c>
       <c r="AE75" s="15">
-        <v>720419</v>
+        <v>892268</v>
       </c>
       <c r="AF75" s="15">
-        <v>875995</v>
+        <v>421887</v>
       </c>
       <c r="AG75" s="15">
-        <v>892268</v>
+        <v>887227</v>
       </c>
       <c r="AH75" s="15">
-        <v>421887</v>
+        <v>1293961</v>
       </c>
       <c r="AI75" s="15">
-        <v>887227</v>
+        <v>1026599</v>
       </c>
       <c r="AJ75" s="15">
-        <v>1293961</v>
+        <v>1092502</v>
       </c>
       <c r="AK75" s="15">
-        <v>1026599</v>
+        <v>1297683</v>
       </c>
       <c r="AL75" s="15">
-        <v>1092502</v>
+        <v>917230</v>
       </c>
       <c r="AM75" s="15">
-        <v>1297683</v>
+        <v>758684</v>
       </c>
       <c r="AN75" s="15">
-        <v>917230</v>
+        <v>1093624</v>
       </c>
       <c r="AO75" s="15">
-        <v>758684</v>
+        <v>686394</v>
       </c>
       <c r="AP75" s="15">
-        <v>1093624</v>
+        <v>737519</v>
       </c>
       <c r="AQ75" s="15">
-        <v>686394</v>
+        <v>895466</v>
       </c>
       <c r="AR75" s="15">
-        <v>737519</v>
+        <v>317050</v>
       </c>
       <c r="AS75" s="15">
-        <v>895466</v>
+        <v>124396</v>
       </c>
       <c r="AT75" s="15">
-        <v>317050</v>
+        <v>724824</v>
       </c>
       <c r="AU75" s="15">
-        <v>124441</v>
+        <v>1190432</v>
       </c>
       <c r="AV75" s="15">
-        <v>724344</v>
+        <v>898434</v>
       </c>
       <c r="AW75" s="15">
-        <v>1190432</v>
+        <v>1130526</v>
       </c>
       <c r="AX75" s="15">
-        <v>898434</v>
+        <v>1639744</v>
       </c>
       <c r="AY75" s="15">
-        <v>1116321</v>
+        <v>1319341</v>
       </c>
       <c r="AZ75" s="15">
-        <v>1639744</v>
+        <v>1584731</v>
       </c>
       <c r="BA75" s="15">
-        <v>1319341</v>
+        <v>1404205</v>
       </c>
       <c r="BB75" s="15">
-        <v>1495142</v>
+        <v>1704355</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -9841,7 +9841,7 @@
       <c r="BA76" s="1"/>
       <c r="BB76" s="1"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -9896,7 +9896,7 @@
       <c r="BA77" s="1"/>
       <c r="BB77" s="1"/>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -9951,7 +9951,7 @@
       <c r="BA78" s="1"/>
       <c r="BB78" s="1"/>
     </row>
-    <row r="79" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B79" s="7" t="s">
         <v>84</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -10163,7 +10163,7 @@
       <c r="BA80" s="1"/>
       <c r="BB80" s="1"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
         <v>85</v>
       </c>
@@ -10220,7 +10220,7 @@
       <c r="BA81" s="9"/>
       <c r="BB81" s="9"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>56</v>
       </c>
@@ -10300,86 +10300,86 @@
       <c r="AB82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD82" s="11" t="s">
-        <v>58</v>
+      <c r="AC82" s="11">
+        <v>294501223</v>
+      </c>
+      <c r="AD82" s="11">
+        <v>330074503</v>
       </c>
       <c r="AE82" s="11">
-        <v>294501223</v>
+        <v>283736452</v>
       </c>
       <c r="AF82" s="11">
-        <v>330074503</v>
+        <v>296379487</v>
       </c>
       <c r="AG82" s="11">
-        <v>283736452</v>
+        <v>297255456</v>
       </c>
       <c r="AH82" s="11">
-        <v>296379487</v>
+        <v>312009435</v>
       </c>
       <c r="AI82" s="11">
-        <v>297255456</v>
+        <v>345109392</v>
       </c>
       <c r="AJ82" s="11">
-        <v>312009435</v>
+        <v>385303987</v>
       </c>
       <c r="AK82" s="11">
-        <v>345109392</v>
+        <v>364423033</v>
       </c>
       <c r="AL82" s="11">
-        <v>385303987</v>
+        <v>366675522</v>
       </c>
       <c r="AM82" s="11">
-        <v>364423033</v>
+        <v>402017738</v>
       </c>
       <c r="AN82" s="11">
-        <v>366675522</v>
+        <v>326698246</v>
       </c>
       <c r="AO82" s="11">
-        <v>402017738</v>
+        <v>354379310</v>
       </c>
       <c r="AP82" s="11">
-        <v>326698246</v>
+        <v>338182819</v>
       </c>
       <c r="AQ82" s="11">
-        <v>354379310</v>
+        <v>353010309</v>
       </c>
       <c r="AR82" s="11">
-        <v>338182819</v>
+        <v>450829897</v>
       </c>
       <c r="AS82" s="11">
-        <v>353010309</v>
+        <v>276174386</v>
       </c>
       <c r="AT82" s="11">
-        <v>450829897</v>
+        <v>513966164</v>
       </c>
       <c r="AU82" s="11">
-        <v>276174386</v>
+        <v>456263443</v>
       </c>
       <c r="AV82" s="11">
-        <v>516614341</v>
+        <v>460077514</v>
       </c>
       <c r="AW82" s="11">
-        <v>456263443</v>
+        <v>517422487</v>
       </c>
       <c r="AX82" s="11">
-        <v>460076803</v>
+        <v>488418655</v>
       </c>
       <c r="AY82" s="11">
-        <v>515397302</v>
+        <v>552341034</v>
       </c>
       <c r="AZ82" s="11">
-        <v>488418655</v>
+        <v>579849890</v>
       </c>
       <c r="BA82" s="11">
-        <v>552341034</v>
+        <v>550153078</v>
       </c>
       <c r="BB82" s="11">
-        <v>573252207</v>
+        <v>548912611</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
         <v>59</v>
       </c>
@@ -10459,86 +10459,86 @@
       <c r="AB83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD83" s="13" t="s">
-        <v>58</v>
+      <c r="AC83" s="13">
+        <v>101888015</v>
+      </c>
+      <c r="AD83" s="13">
+        <v>116944546</v>
       </c>
       <c r="AE83" s="13">
-        <v>101888015</v>
+        <v>105955895</v>
       </c>
       <c r="AF83" s="13">
-        <v>116944546</v>
+        <v>89526230</v>
       </c>
       <c r="AG83" s="13">
-        <v>105955895</v>
+        <v>98117530</v>
       </c>
       <c r="AH83" s="13">
-        <v>89526230</v>
+        <v>123745122</v>
       </c>
       <c r="AI83" s="13">
-        <v>98117530</v>
+        <v>109223606</v>
       </c>
       <c r="AJ83" s="13">
-        <v>123745122</v>
+        <v>128847518</v>
       </c>
       <c r="AK83" s="13">
-        <v>109223606</v>
+        <v>134061787</v>
       </c>
       <c r="AL83" s="13">
-        <v>128847518</v>
+        <v>121002407</v>
       </c>
       <c r="AM83" s="13">
-        <v>134061787</v>
+        <v>123456044</v>
       </c>
       <c r="AN83" s="13">
-        <v>121002407</v>
+        <v>97557531</v>
       </c>
       <c r="AO83" s="13">
-        <v>123456044</v>
+        <v>130967192</v>
       </c>
       <c r="AP83" s="13">
-        <v>97557531</v>
+        <v>124658993</v>
       </c>
       <c r="AQ83" s="13">
-        <v>130967192</v>
+        <v>137918797</v>
       </c>
       <c r="AR83" s="13">
-        <v>124658993</v>
+        <v>127105263</v>
       </c>
       <c r="AS83" s="13">
-        <v>137918797</v>
+        <v>104987203</v>
       </c>
       <c r="AT83" s="13">
-        <v>127105263</v>
+        <v>166157144</v>
       </c>
       <c r="AU83" s="13">
-        <v>104987203</v>
+        <v>162151459</v>
       </c>
       <c r="AV83" s="13">
-        <v>166156928</v>
+        <v>184164713</v>
       </c>
       <c r="AW83" s="13">
-        <v>162151459</v>
+        <v>179616525</v>
       </c>
       <c r="AX83" s="13">
-        <v>184164645</v>
+        <v>163705329</v>
       </c>
       <c r="AY83" s="13">
-        <v>179480492</v>
+        <v>179760274</v>
       </c>
       <c r="AZ83" s="13">
-        <v>163705329</v>
+        <v>170273373</v>
       </c>
       <c r="BA83" s="13">
-        <v>179760274</v>
+        <v>163642970</v>
       </c>
       <c r="BB83" s="13">
-        <v>166535885</v>
+        <v>165891304</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>60</v>
       </c>
@@ -10618,86 +10618,86 @@
       <c r="AB84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD84" s="11" t="s">
-        <v>58</v>
+      <c r="AC84" s="11">
+        <v>581228965</v>
+      </c>
+      <c r="AD84" s="11">
+        <v>623040617</v>
       </c>
       <c r="AE84" s="11">
-        <v>581228965</v>
+        <v>566834164</v>
       </c>
       <c r="AF84" s="11">
-        <v>623040617</v>
+        <v>548408333</v>
       </c>
       <c r="AG84" s="11">
-        <v>566834164</v>
+        <v>560581761</v>
       </c>
       <c r="AH84" s="11">
-        <v>548408333</v>
+        <v>656394164</v>
       </c>
       <c r="AI84" s="11">
-        <v>560581761</v>
+        <v>637506471</v>
       </c>
       <c r="AJ84" s="11">
-        <v>656394164</v>
+        <v>768544061</v>
       </c>
       <c r="AK84" s="11">
-        <v>637506471</v>
+        <v>716279863</v>
       </c>
       <c r="AL84" s="11">
-        <v>768544061</v>
+        <v>729908367</v>
       </c>
       <c r="AM84" s="11">
-        <v>716279863</v>
+        <v>826290541</v>
       </c>
       <c r="AN84" s="11">
-        <v>729908367</v>
+        <v>688296703</v>
       </c>
       <c r="AO84" s="11">
-        <v>826290541</v>
+        <v>717544828</v>
       </c>
       <c r="AP84" s="11">
-        <v>688296703</v>
+        <v>694293814</v>
       </c>
       <c r="AQ84" s="11">
-        <v>717544828</v>
+        <v>608215190</v>
       </c>
       <c r="AR84" s="11">
-        <v>694293814</v>
+        <v>723915254</v>
       </c>
       <c r="AS84" s="11">
-        <v>608215190</v>
+        <v>428773418</v>
       </c>
       <c r="AT84" s="11">
-        <v>723915254</v>
+        <v>956299643</v>
       </c>
       <c r="AU84" s="11">
-        <v>428773418</v>
+        <v>945737811</v>
       </c>
       <c r="AV84" s="11">
-        <v>956002970</v>
+        <v>937866771</v>
       </c>
       <c r="AW84" s="11">
-        <v>945737811</v>
+        <v>1026860036</v>
       </c>
       <c r="AX84" s="11">
-        <v>937866035</v>
+        <v>935549618</v>
       </c>
       <c r="AY84" s="11">
-        <v>1026775407</v>
+        <v>1014780822</v>
       </c>
       <c r="AZ84" s="11">
-        <v>935549618</v>
+        <v>974749709</v>
       </c>
       <c r="BA84" s="11">
-        <v>1014780822</v>
+        <v>908629482</v>
       </c>
       <c r="BB84" s="11">
-        <v>911518072</v>
+        <v>945144737</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
         <v>61</v>
       </c>
@@ -10777,86 +10777,86 @@
       <c r="AB85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD85" s="13" t="s">
-        <v>58</v>
+      <c r="AC85" s="13">
+        <v>144899050</v>
+      </c>
+      <c r="AD85" s="13">
+        <v>160989040</v>
       </c>
       <c r="AE85" s="13">
-        <v>144899050</v>
+        <v>148968735</v>
       </c>
       <c r="AF85" s="13">
-        <v>160989040</v>
+        <v>144897233</v>
       </c>
       <c r="AG85" s="13">
-        <v>148968735</v>
+        <v>147574784</v>
       </c>
       <c r="AH85" s="13">
-        <v>144897233</v>
+        <v>168843936</v>
       </c>
       <c r="AI85" s="13">
-        <v>147574784</v>
+        <v>165388458</v>
       </c>
       <c r="AJ85" s="13">
-        <v>168843936</v>
+        <v>195436929</v>
       </c>
       <c r="AK85" s="13">
-        <v>165388458</v>
+        <v>177979908</v>
       </c>
       <c r="AL85" s="13">
-        <v>195436929</v>
+        <v>180579717</v>
       </c>
       <c r="AM85" s="13">
-        <v>177979908</v>
+        <v>191151547</v>
       </c>
       <c r="AN85" s="13">
-        <v>180579717</v>
+        <v>166142215</v>
       </c>
       <c r="AO85" s="13">
-        <v>191151547</v>
+        <v>175085992</v>
       </c>
       <c r="AP85" s="13">
-        <v>166142215</v>
+        <v>163174312</v>
       </c>
       <c r="AQ85" s="13">
-        <v>175085992</v>
+        <v>189459600</v>
       </c>
       <c r="AR85" s="13">
-        <v>163174312</v>
+        <v>190073333</v>
       </c>
       <c r="AS85" s="13">
-        <v>189459600</v>
+        <v>135389184</v>
       </c>
       <c r="AT85" s="13">
-        <v>190073333</v>
+        <v>234784450</v>
       </c>
       <c r="AU85" s="13">
-        <v>135389184</v>
+        <v>240996687</v>
       </c>
       <c r="AV85" s="13">
-        <v>234784647</v>
+        <v>245321460</v>
       </c>
       <c r="AW85" s="13">
-        <v>240996687</v>
+        <v>242772914</v>
       </c>
       <c r="AX85" s="13">
-        <v>245321440</v>
+        <v>240654529</v>
       </c>
       <c r="AY85" s="13">
-        <v>242690879</v>
+        <v>243781948</v>
       </c>
       <c r="AZ85" s="13">
-        <v>240654529</v>
+        <v>262793192</v>
       </c>
       <c r="BA85" s="13">
-        <v>243781948</v>
+        <v>240019199</v>
       </c>
       <c r="BB85" s="13">
-        <v>234595045</v>
+        <v>239768519</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
         <v>62</v>
       </c>
@@ -10936,86 +10936,86 @@
       <c r="AB86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD86" s="11" t="s">
-        <v>58</v>
+      <c r="AC86" s="11">
+        <v>1800000000</v>
+      </c>
+      <c r="AD86" s="11">
+        <v>1250000000</v>
       </c>
       <c r="AE86" s="11">
-        <v>1800000000</v>
+        <v>1058823529</v>
       </c>
       <c r="AF86" s="11">
-        <v>1250000000</v>
+        <v>17151515152</v>
       </c>
       <c r="AG86" s="11">
-        <v>1058823529</v>
+        <v>170588235</v>
       </c>
       <c r="AH86" s="11">
-        <v>17151515152</v>
+        <v>1700000000</v>
       </c>
       <c r="AI86" s="11">
-        <v>170588235</v>
+        <v>2666666667</v>
       </c>
       <c r="AJ86" s="11">
-        <v>1700000000</v>
+        <v>1615789474</v>
       </c>
       <c r="AK86" s="11">
-        <v>2666666667</v>
+        <v>575000000</v>
       </c>
       <c r="AL86" s="11">
-        <v>1615789474</v>
+        <v>1500000000</v>
       </c>
       <c r="AM86" s="11">
-        <v>575000000</v>
+        <v>3718750000</v>
       </c>
       <c r="AN86" s="11">
+        <v>2550515464</v>
+      </c>
+      <c r="AO86" s="11">
+        <v>2650000000</v>
+      </c>
+      <c r="AP86" s="11">
+        <v>1300000000</v>
+      </c>
+      <c r="AQ86" s="11">
+        <v>1580000000</v>
+      </c>
+      <c r="AR86" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS86" s="11">
+        <v>1428571429</v>
+      </c>
+      <c r="AT86" s="11">
+        <v>2318181818</v>
+      </c>
+      <c r="AU86" s="11">
+        <v>2127147766</v>
+      </c>
+      <c r="AV86" s="11">
+        <v>1441176471</v>
+      </c>
+      <c r="AW86" s="11">
+        <v>700000000</v>
+      </c>
+      <c r="AX86" s="11">
+        <v>1750000000</v>
+      </c>
+      <c r="AY86" s="11">
+        <v>1538461538</v>
+      </c>
+      <c r="AZ86" s="11">
+        <v>1528571429</v>
+      </c>
+      <c r="BA86" s="11">
         <v>1500000000</v>
       </c>
-      <c r="AO86" s="11">
-        <v>3718750000</v>
-      </c>
-      <c r="AP86" s="11">
-        <v>2550515464</v>
-      </c>
-      <c r="AQ86" s="11">
-        <v>2650000000</v>
-      </c>
-      <c r="AR86" s="11">
-        <v>1300000000</v>
-      </c>
-      <c r="AS86" s="11">
-        <v>1580000000</v>
-      </c>
-      <c r="AT86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU86" s="11">
-        <v>1428571429</v>
-      </c>
-      <c r="AV86" s="11">
-        <v>2318181818</v>
-      </c>
-      <c r="AW86" s="11">
-        <v>2127147766</v>
-      </c>
-      <c r="AX86" s="11">
-        <v>1448866422</v>
-      </c>
-      <c r="AY86" s="11">
-        <v>711111111</v>
-      </c>
-      <c r="AZ86" s="11">
-        <v>1750000000</v>
-      </c>
-      <c r="BA86" s="11">
-        <v>1538461538</v>
-      </c>
       <c r="BB86" s="11">
-        <v>2028571429</v>
+        <v>1733333333</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
         <v>87</v>
       </c>
@@ -11072,7 +11072,7 @@
       <c r="BA87" s="9"/>
       <c r="BB87" s="9"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>56</v>
       </c>
@@ -11167,71 +11167,71 @@
       <c r="AG88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH88" s="11" t="s">
-        <v>58</v>
+      <c r="AH88" s="11">
+        <v>337045940</v>
       </c>
       <c r="AI88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ88" s="11">
-        <v>337045940</v>
-      </c>
-      <c r="AK88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM88" s="11">
+      <c r="AJ88" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK88" s="11">
         <v>302464789</v>
       </c>
+      <c r="AL88" s="11">
+        <v>302125000</v>
+      </c>
+      <c r="AM88" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AN88" s="11">
-        <v>302125000</v>
-      </c>
-      <c r="AO88" s="11" t="s">
-        <v>58</v>
+        <v>285168000</v>
+      </c>
+      <c r="AO88" s="11">
+        <v>278949430</v>
       </c>
       <c r="AP88" s="11">
-        <v>285168000</v>
+        <v>310361111</v>
       </c>
       <c r="AQ88" s="11">
-        <v>278949430</v>
+        <v>345576923</v>
       </c>
       <c r="AR88" s="11">
-        <v>310361111</v>
+        <v>328614286</v>
       </c>
       <c r="AS88" s="11">
-        <v>345576923</v>
-      </c>
-      <c r="AT88" s="11">
-        <v>328614286</v>
-      </c>
-      <c r="AU88" s="11">
-        <v>456333441</v>
-      </c>
-      <c r="AV88" s="11">
-        <v>-341929</v>
+        <v>461242718</v>
+      </c>
+      <c r="AT88" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU88" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV88" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AW88" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AX88" s="11">
-        <v>0</v>
+        <v>413266667</v>
       </c>
       <c r="AY88" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ88" s="11">
-        <v>413266667</v>
-      </c>
-      <c r="BA88" s="11">
         <v>600454545</v>
       </c>
+      <c r="AZ88" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA88" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="BB88" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
         <v>59</v>
       </c>
@@ -11344,14 +11344,14 @@
       <c r="AM89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN89" s="13" t="s">
-        <v>58</v>
+      <c r="AN89" s="13">
+        <v>237400000</v>
       </c>
       <c r="AO89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP89" s="13">
-        <v>237400000</v>
+      <c r="AP89" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ89" s="13" t="s">
         <v>58</v>
@@ -11390,7 +11390,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>60</v>
       </c>
@@ -11476,42 +11476,42 @@
       <c r="AD90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF90" s="11" t="s">
-        <v>58</v>
+      <c r="AE90" s="11">
+        <v>511814540</v>
+      </c>
+      <c r="AF90" s="11">
+        <v>504500000</v>
       </c>
       <c r="AG90" s="11">
-        <v>511814540</v>
+        <v>478894472</v>
       </c>
       <c r="AH90" s="11">
-        <v>504500000</v>
-      </c>
-      <c r="AI90" s="11">
-        <v>478894472</v>
-      </c>
-      <c r="AJ90" s="11">
         <v>560287826</v>
       </c>
+      <c r="AI90" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ90" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AK90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM90" s="11" t="s">
-        <v>58</v>
+      <c r="AL90" s="11">
+        <v>629294118</v>
+      </c>
+      <c r="AM90" s="11">
+        <v>611250000</v>
       </c>
       <c r="AN90" s="11">
-        <v>629294118</v>
-      </c>
-      <c r="AO90" s="11">
-        <v>611250000</v>
-      </c>
-      <c r="AP90" s="11">
         <v>601647059</v>
       </c>
+      <c r="AO90" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP90" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ90" s="11" t="s">
         <v>58</v>
       </c>
@@ -11527,29 +11527,29 @@
       <c r="AU90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW90" s="11" t="s">
-        <v>58</v>
+      <c r="AV90" s="11">
+        <v>792418981</v>
+      </c>
+      <c r="AW90" s="11">
+        <v>701367188</v>
       </c>
       <c r="AX90" s="11">
-        <v>792418981</v>
-      </c>
-      <c r="AY90" s="11">
-        <v>701367188</v>
+        <v>768000000</v>
+      </c>
+      <c r="AY90" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AZ90" s="11">
-        <v>768000000</v>
+        <v>716833333</v>
       </c>
       <c r="BA90" s="11" t="s">
         <v>58</v>
       </c>
       <c r="BB90" s="11">
-        <v>716833333</v>
+        <v>797557756</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
         <v>61</v>
       </c>
@@ -11632,80 +11632,80 @@
       <c r="AC91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD91" s="13" t="s">
-        <v>58</v>
+      <c r="AD91" s="13">
+        <v>145916157</v>
       </c>
       <c r="AE91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF91" s="13">
-        <v>145916157</v>
-      </c>
-      <c r="AG91" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH91" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI91" s="13">
+      <c r="AF91" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG91" s="13">
         <v>137955882</v>
       </c>
+      <c r="AH91" s="13">
+        <v>149572270</v>
+      </c>
+      <c r="AI91" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ91" s="13">
-        <v>149572270</v>
-      </c>
-      <c r="AK91" s="13" t="s">
-        <v>58</v>
+        <v>184788863</v>
+      </c>
+      <c r="AK91" s="13">
+        <v>171642249</v>
       </c>
       <c r="AL91" s="13">
-        <v>184788863</v>
+        <v>161511111</v>
       </c>
       <c r="AM91" s="13">
-        <v>171642249</v>
+        <v>201136364</v>
       </c>
       <c r="AN91" s="13">
-        <v>161511111</v>
+        <v>164318182</v>
       </c>
       <c r="AO91" s="13">
-        <v>201136364</v>
+        <v>141202689</v>
       </c>
       <c r="AP91" s="13">
-        <v>164318182</v>
+        <v>131289037</v>
       </c>
       <c r="AQ91" s="13">
-        <v>141202689</v>
+        <v>162348837</v>
       </c>
       <c r="AR91" s="13">
-        <v>131289037</v>
+        <v>162742358</v>
       </c>
       <c r="AS91" s="13">
-        <v>162348837</v>
-      </c>
-      <c r="AT91" s="13">
-        <v>162742358</v>
+        <v>152705882</v>
+      </c>
+      <c r="AT91" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU91" s="13">
-        <v>155269508</v>
+        <v>242889503</v>
       </c>
       <c r="AV91" s="13">
-        <v>0</v>
+        <v>247267775</v>
       </c>
       <c r="AW91" s="13">
-        <v>242889503</v>
+        <v>241215680</v>
       </c>
       <c r="AX91" s="13">
-        <v>247268281</v>
+        <v>228297872</v>
       </c>
       <c r="AY91" s="13">
-        <v>241248375</v>
+        <v>234712500</v>
       </c>
       <c r="AZ91" s="13">
-        <v>228297872</v>
+        <v>182294765</v>
       </c>
       <c r="BA91" s="13">
-        <v>234712500</v>
+        <v>187043478</v>
       </c>
       <c r="BB91" s="13">
-        <v>182373112</v>
+        <v>216810345</v>
       </c>
     </row>
   </sheetData>
